--- a/REVER_DailyTracker_20200928.xlsx
+++ b/REVER_DailyTracker_20200928.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\mamatha\DailyTracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E7EE557-5784-4782-9EE3-973D9A183BCB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9ACC719-2D68-4A6D-97E6-E5FF66798088}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="3" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="12360" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Balraj" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="18">
   <si>
     <t>No</t>
   </si>
@@ -75,6 +75,15 @@
   </si>
   <si>
     <t xml:space="preserve">Regression testing on B2C and Hayaai site </t>
+  </si>
+  <si>
+    <t>28/09/2020</t>
+  </si>
+  <si>
+    <t>Hayaai-B2B</t>
+  </si>
+  <si>
+    <t>Issue resolution from issue tracker</t>
   </si>
 </sst>
 </file>
@@ -583,15 +592,15 @@
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="104.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="104.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -615,7 +624,7 @@
       </c>
       <c r="G1" s="3"/>
     </row>
-    <row r="2" spans="1:7" s="24" customFormat="1" ht="28.9" customHeight="1">
+    <row r="2" spans="1:7" s="24" customFormat="1" ht="28.95" customHeight="1">
       <c r="A2" s="25"/>
       <c r="B2" s="26"/>
       <c r="C2" s="25"/>
@@ -688,19 +697,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="72.5703125" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="72.5546875" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -825,15 +834,15 @@
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -936,15 +945,15 @@
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -970,7 +979,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75">
+    <row r="2" spans="1:7" ht="15.6">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -981,7 +990,7 @@
       <c r="F2" s="7"/>
       <c r="G2" s="4"/>
     </row>
-    <row r="3" spans="1:7" ht="15.75">
+    <row r="3" spans="1:7" ht="15.6">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -1051,15 +1060,15 @@
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1158,19 +1167,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1198,11 +1207,21 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="4"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="7"/>
+      <c r="B2" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>6</v>
+      </c>
       <c r="G2" s="4"/>
     </row>
     <row r="3" spans="1:7">
@@ -1273,15 +1292,15 @@
       <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1373,15 +1392,15 @@
       <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1484,15 +1503,15 @@
       <selection activeCell="F14" sqref="E14:F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1595,15 +1614,15 @@
       <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1706,15 +1725,15 @@
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">

--- a/REVER_DailyTracker_20200928.xlsx
+++ b/REVER_DailyTracker_20200928.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\mamatha\DailyTracker\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nprem\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9ACC719-2D68-4A6D-97E6-E5FF66798088}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBDF82F3-61AC-422C-BC9A-E76E601A964F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="12360" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" firstSheet="3" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Balraj" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="39">
   <si>
     <t>No</t>
   </si>
@@ -77,13 +77,76 @@
     <t xml:space="preserve">Regression testing on B2C and Hayaai site </t>
   </si>
   <si>
-    <t>28/09/2020</t>
-  </si>
-  <si>
-    <t>Hayaai-B2B</t>
-  </si>
-  <si>
-    <t>Issue resolution from issue tracker</t>
+    <t xml:space="preserve"> Soniya</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Mr_Max Migration</t>
+  </si>
+  <si>
+    <t>completed</t>
+  </si>
+  <si>
+    <t>Vastu &amp; Soniya</t>
+  </si>
+  <si>
+    <t>vastu Mobile and Mr_Max (Import) Migration</t>
+  </si>
+  <si>
+    <t>completed &amp; WIP</t>
+  </si>
+  <si>
+    <t>Vastu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vastu Mobile </t>
+  </si>
+  <si>
+    <t>SAT &amp; SUN DAY</t>
+  </si>
+  <si>
+    <t>vastu Mobile and Kuroganeya Migration</t>
+  </si>
+  <si>
+    <t>soniya</t>
+  </si>
+  <si>
+    <t>Kuroganeya Migration</t>
+  </si>
+  <si>
+    <t>All denka Migration</t>
+  </si>
+  <si>
+    <t>vastu mobile</t>
+  </si>
+  <si>
+    <t>BIC Migration</t>
+  </si>
+  <si>
+    <t>vastu</t>
+  </si>
+  <si>
+    <t>issue fixing</t>
+  </si>
+  <si>
+    <t>QMVAR</t>
+  </si>
+  <si>
+    <t>daily_UnRepaipairset_NP</t>
+  </si>
+  <si>
+    <t>daily_UndeliveredSet</t>
+  </si>
+  <si>
+    <t>Daily_OS_specialtreatment</t>
+  </si>
+  <si>
+    <t>Soniya</t>
+  </si>
+  <si>
+    <t>nQGcare_ipad_bat Migration</t>
+  </si>
+  <si>
+    <t>nMvar Migration</t>
   </si>
 </sst>
 </file>
@@ -93,7 +156,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-14009]yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -144,8 +207,30 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -182,8 +267,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -232,6 +323,68 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -239,7 +392,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -310,6 +463,44 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1167,8 +1358,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1207,21 +1398,11 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="4"/>
-      <c r="B2" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E2" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>6</v>
-      </c>
+      <c r="B2" s="5"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="7"/>
       <c r="G2" s="4"/>
     </row>
     <row r="3" spans="1:7">
@@ -1608,110 +1789,527 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:G26"/>
+  <dimension ref="A1:G33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="6.109375" customWidth="1"/>
     <col min="2" max="2" width="13.5546875" customWidth="1"/>
     <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="4" max="4" width="44.77734375" customWidth="1"/>
     <col min="5" max="5" width="18.88671875" customWidth="1"/>
     <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.6640625" customWidth="1"/>
+    <col min="7" max="7" width="48.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="33" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="4"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="7"/>
+      <c r="A2" s="4">
+        <v>1</v>
+      </c>
+      <c r="B2" s="19">
+        <v>44075</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="35"/>
+      <c r="F2" s="36" t="s">
+        <v>17</v>
+      </c>
       <c r="G2" s="4"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="8"/>
+      <c r="A3" s="4">
+        <v>2</v>
+      </c>
+      <c r="B3" s="19">
+        <v>44076</v>
+      </c>
+      <c r="C3" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="35"/>
+      <c r="F3" s="35" t="s">
+        <v>20</v>
+      </c>
       <c r="G3" s="4"/>
     </row>
-    <row r="4" spans="1:7" s="1" customFormat="1"/>
-    <row r="5" spans="1:7" s="1" customFormat="1"/>
-    <row r="6" spans="1:7" s="1" customFormat="1"/>
-    <row r="7" spans="1:7" s="1" customFormat="1"/>
-    <row r="8" spans="1:7" s="1" customFormat="1"/>
-    <row r="9" spans="1:7" s="1" customFormat="1"/>
-    <row r="10" spans="1:7" s="1" customFormat="1"/>
-    <row r="11" spans="1:7" s="1" customFormat="1"/>
-    <row r="12" spans="1:7" s="1" customFormat="1"/>
-    <row r="13" spans="1:7" s="1" customFormat="1"/>
-    <row r="14" spans="1:7" s="1" customFormat="1"/>
-    <row r="15" spans="1:7" s="1" customFormat="1"/>
-    <row r="16" spans="1:7" s="1" customFormat="1"/>
-    <row r="17" spans="2:3" s="1" customFormat="1"/>
-    <row r="18" spans="2:3" s="1" customFormat="1"/>
-    <row r="19" spans="2:3" s="1" customFormat="1"/>
-    <row r="22" spans="2:3">
-      <c r="C22" s="9" t="s">
+    <row r="4" spans="1:7">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="19">
+        <v>44077</v>
+      </c>
+      <c r="C4" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="35"/>
+      <c r="F4" s="37" t="s">
+        <v>6</v>
+      </c>
+      <c r="G4" s="4"/>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="19">
+        <v>44078</v>
+      </c>
+      <c r="C5" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="35"/>
+      <c r="F5" s="37" t="s">
+        <v>6</v>
+      </c>
+      <c r="G5" s="4"/>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6">
         <v>5</v>
       </c>
-    </row>
-    <row r="23" spans="2:3">
-      <c r="B23" s="10"/>
-      <c r="C23" t="s">
+      <c r="B6" s="19">
+        <v>44079</v>
+      </c>
+      <c r="C6" s="38" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="39"/>
+      <c r="E6" s="39"/>
+      <c r="F6" s="40"/>
+      <c r="G6" s="4"/>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7">
         <v>6</v>
       </c>
-    </row>
-    <row r="24" spans="2:3">
-      <c r="B24" s="11"/>
-      <c r="C24" t="s">
+      <c r="B7" s="19">
+        <v>44080</v>
+      </c>
+      <c r="C7" s="41"/>
+      <c r="D7" s="42"/>
+      <c r="E7" s="42"/>
+      <c r="F7" s="43"/>
+      <c r="G7" s="4"/>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8">
         <v>7</v>
       </c>
-    </row>
-    <row r="25" spans="2:3">
-      <c r="B25" s="12"/>
-      <c r="C25" t="s">
+      <c r="B8" s="19">
+        <v>44081</v>
+      </c>
+      <c r="C8" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" s="35"/>
+      <c r="F8" s="37" t="s">
+        <v>6</v>
+      </c>
+      <c r="G8" s="4"/>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9">
         <v>8</v>
       </c>
-    </row>
-    <row r="26" spans="2:3">
-      <c r="B26" s="13"/>
-      <c r="C26" t="s">
+      <c r="B9" s="19">
+        <v>44082</v>
+      </c>
+      <c r="C9" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" s="35"/>
+      <c r="F9" s="37" t="s">
+        <v>6</v>
+      </c>
+      <c r="G9" s="4"/>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10">
         <v>9</v>
       </c>
+      <c r="B10" s="19">
+        <v>44083</v>
+      </c>
+      <c r="C10" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10" s="35"/>
+      <c r="F10" s="37" t="s">
+        <v>6</v>
+      </c>
+      <c r="G10" s="4"/>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="19">
+        <v>44084</v>
+      </c>
+      <c r="C11" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" s="34" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11" s="35"/>
+      <c r="F11" s="37" t="s">
+        <v>6</v>
+      </c>
+      <c r="G11" s="4"/>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" s="19">
+        <v>44085</v>
+      </c>
+      <c r="C12" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" s="34" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12" s="35"/>
+      <c r="F12" s="36" t="s">
+        <v>17</v>
+      </c>
+      <c r="G12" s="4"/>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" s="19">
+        <v>44086</v>
+      </c>
+      <c r="C13" s="38" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" s="39"/>
+      <c r="E13" s="39"/>
+      <c r="F13" s="40"/>
+      <c r="G13" s="4"/>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" s="19">
+        <v>44087</v>
+      </c>
+      <c r="C14" s="41"/>
+      <c r="D14" s="42"/>
+      <c r="E14" s="42"/>
+      <c r="F14" s="43"/>
+      <c r="G14" s="4"/>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" s="19">
+        <v>44088</v>
+      </c>
+      <c r="C15" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" s="34" t="s">
+        <v>27</v>
+      </c>
+      <c r="E15" s="35"/>
+      <c r="F15" s="36" t="s">
+        <v>17</v>
+      </c>
+      <c r="G15" s="4"/>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" s="19">
+        <v>44089</v>
+      </c>
+      <c r="C16" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="D16" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="E16" s="35"/>
+      <c r="F16" s="36" t="s">
+        <v>17</v>
+      </c>
+      <c r="G16" s="4"/>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" s="19">
+        <v>44090</v>
+      </c>
+      <c r="C17" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="E17" s="35"/>
+      <c r="F17" s="37" t="s">
+        <v>6</v>
+      </c>
+      <c r="G17" s="4"/>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" s="19">
+        <v>44091</v>
+      </c>
+      <c r="C18" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="E18" s="35"/>
+      <c r="F18" s="36" t="s">
+        <v>17</v>
+      </c>
+      <c r="G18" s="4"/>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" s="19">
+        <v>44092</v>
+      </c>
+      <c r="C19" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="D19" s="34" t="s">
+        <v>31</v>
+      </c>
+      <c r="E19" s="35"/>
+      <c r="F19" s="36" t="s">
+        <v>17</v>
+      </c>
+      <c r="G19" s="4"/>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" s="19">
+        <v>44093</v>
+      </c>
+      <c r="C20" s="38" t="s">
+        <v>23</v>
+      </c>
+      <c r="D20" s="39"/>
+      <c r="E20" s="39"/>
+      <c r="F20" s="40"/>
+      <c r="G20" s="4"/>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" s="19">
+        <v>44094</v>
+      </c>
+      <c r="C21" s="41"/>
+      <c r="D21" s="42"/>
+      <c r="E21" s="42"/>
+      <c r="F21" s="43"/>
+      <c r="G21" s="4"/>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" s="19">
+        <v>44095</v>
+      </c>
+      <c r="C22" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="D22" s="34" t="s">
+        <v>33</v>
+      </c>
+      <c r="E22" s="35"/>
+      <c r="F22" s="36" t="s">
+        <v>17</v>
+      </c>
+      <c r="G22" s="4"/>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" s="19">
+        <v>44096</v>
+      </c>
+      <c r="C23" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="D23" s="34" t="s">
+        <v>34</v>
+      </c>
+      <c r="E23" s="35"/>
+      <c r="F23" s="36" t="s">
+        <v>17</v>
+      </c>
+      <c r="G23" s="4"/>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" s="19">
+        <v>44097</v>
+      </c>
+      <c r="C24" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="D24" s="34" t="s">
+        <v>35</v>
+      </c>
+      <c r="E24" s="35"/>
+      <c r="F24" s="36" t="s">
+        <v>17</v>
+      </c>
+      <c r="G24" s="4"/>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" s="19">
+        <v>44098</v>
+      </c>
+      <c r="C25" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="D25" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="E25" s="35"/>
+      <c r="F25" s="36" t="s">
+        <v>17</v>
+      </c>
+      <c r="G25" s="4"/>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" s="19">
+        <v>44099</v>
+      </c>
+      <c r="C26" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="D26" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="E26" s="35"/>
+      <c r="F26" s="37" t="s">
+        <v>6</v>
+      </c>
+      <c r="G26" s="4"/>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="D29" s="44" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="C30" s="45"/>
+      <c r="D30" t="s">
+        <v>6</v>
+      </c>
+      <c r="E30" s="46"/>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="C31" s="47"/>
+      <c r="D31" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="C32" s="12"/>
+      <c r="D32" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33" spans="3:4">
+      <c r="C33" s="13"/>
+      <c r="D33" t="s">
+        <v>9</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="C6:F7"/>
+    <mergeCell ref="C13:F14"/>
+    <mergeCell ref="C20:F21"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
 </worksheet>

--- a/REVER_DailyTracker_20200928.xlsx
+++ b/REVER_DailyTracker_20200928.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nprem\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBDF82F3-61AC-422C-BC9A-E76E601A964F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF3BC361-5595-4470-9860-D6430B5C208C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" firstSheet="3" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -477,30 +477,30 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1792,7 +1792,7 @@
   <dimension ref="A1:G33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+      <selection activeCell="C13" sqref="C13:F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1912,12 +1912,12 @@
       <c r="B6" s="19">
         <v>44079</v>
       </c>
-      <c r="C6" s="38" t="s">
+      <c r="C6" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="39"/>
-      <c r="E6" s="39"/>
-      <c r="F6" s="40"/>
+      <c r="D6" s="43"/>
+      <c r="E6" s="43"/>
+      <c r="F6" s="44"/>
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="1:7">
@@ -1927,10 +1927,10 @@
       <c r="B7" s="19">
         <v>44080</v>
       </c>
-      <c r="C7" s="41"/>
-      <c r="D7" s="42"/>
-      <c r="E7" s="42"/>
-      <c r="F7" s="43"/>
+      <c r="C7" s="45"/>
+      <c r="D7" s="46"/>
+      <c r="E7" s="46"/>
+      <c r="F7" s="47"/>
       <c r="G7" s="4"/>
     </row>
     <row r="8" spans="1:7">
@@ -2035,12 +2035,12 @@
       <c r="B13" s="19">
         <v>44086</v>
       </c>
-      <c r="C13" s="38" t="s">
+      <c r="C13" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="D13" s="39"/>
-      <c r="E13" s="39"/>
-      <c r="F13" s="40"/>
+      <c r="D13" s="43"/>
+      <c r="E13" s="43"/>
+      <c r="F13" s="44"/>
       <c r="G13" s="4"/>
     </row>
     <row r="14" spans="1:7">
@@ -2050,10 +2050,10 @@
       <c r="B14" s="19">
         <v>44087</v>
       </c>
-      <c r="C14" s="41"/>
-      <c r="D14" s="42"/>
-      <c r="E14" s="42"/>
-      <c r="F14" s="43"/>
+      <c r="C14" s="45"/>
+      <c r="D14" s="46"/>
+      <c r="E14" s="46"/>
+      <c r="F14" s="47"/>
       <c r="G14" s="4"/>
     </row>
     <row r="15" spans="1:7">
@@ -2158,12 +2158,12 @@
       <c r="B20" s="19">
         <v>44093</v>
       </c>
-      <c r="C20" s="38" t="s">
+      <c r="C20" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="D20" s="39"/>
-      <c r="E20" s="39"/>
-      <c r="F20" s="40"/>
+      <c r="D20" s="43"/>
+      <c r="E20" s="43"/>
+      <c r="F20" s="44"/>
       <c r="G20" s="4"/>
     </row>
     <row r="21" spans="1:7">
@@ -2173,10 +2173,10 @@
       <c r="B21" s="19">
         <v>44094</v>
       </c>
-      <c r="C21" s="41"/>
-      <c r="D21" s="42"/>
-      <c r="E21" s="42"/>
-      <c r="F21" s="43"/>
+      <c r="C21" s="45"/>
+      <c r="D21" s="46"/>
+      <c r="E21" s="46"/>
+      <c r="F21" s="47"/>
       <c r="G21" s="4"/>
     </row>
     <row r="22" spans="1:7">
@@ -2275,19 +2275,19 @@
       <c r="G26" s="4"/>
     </row>
     <row r="29" spans="1:7">
-      <c r="D29" s="44" t="s">
+      <c r="D29" s="38" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="30" spans="1:7">
-      <c r="C30" s="45"/>
+      <c r="C30" s="39"/>
       <c r="D30" t="s">
         <v>6</v>
       </c>
-      <c r="E30" s="46"/>
+      <c r="E30" s="40"/>
     </row>
     <row r="31" spans="1:7">
-      <c r="C31" s="47"/>
+      <c r="C31" s="41"/>
       <c r="D31" t="s">
         <v>7</v>
       </c>

--- a/REVER_DailyTracker_20200928.xlsx
+++ b/REVER_DailyTracker_20200928.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eswar\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F31DB72-7324-4161-9BDC-33DBCA348E12}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D5ADC23-F820-4D76-98DA-2854F83CAD3B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="2" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="17">
   <si>
     <t>No</t>
   </si>
@@ -73,6 +73,15 @@
   <si>
     <t xml:space="preserve">Sanity testing on B2C app, QMVAR site, GSS site and Hayaai site &amp; Regression testing on B2C, B2B, Vastu and Hayaai site </t>
   </si>
+  <si>
+    <t>Week off</t>
+  </si>
+  <si>
+    <t>Casual Leave</t>
+  </si>
+  <si>
+    <t>Half a day leave</t>
+  </si>
 </sst>
 </file>
 
@@ -81,7 +90,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-14009]yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -123,6 +132,14 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -220,7 +237,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -309,6 +326,10 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -694,10 +715,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
-  <dimension ref="A1:G27"/>
+  <dimension ref="A1:G35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="94.7109375" defaultRowHeight="15"/>
@@ -708,7 +729,7 @@
     <col min="4" max="4" width="109.28515625" style="31" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.5703125" style="31" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.85546875" style="31" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.5703125" style="31" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15" style="31" bestFit="1" customWidth="1"/>
     <col min="8" max="16384" width="94.7109375" style="31"/>
   </cols>
   <sheetData>
@@ -796,7 +817,9 @@
       <c r="F4" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="33"/>
+      <c r="G4" s="45" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="5" spans="1:7" s="34" customFormat="1">
       <c r="A5" s="15">
@@ -820,53 +843,37 @@
       <c r="G5" s="33"/>
     </row>
     <row r="6" spans="1:7" s="34" customFormat="1">
-      <c r="A6" s="15">
-        <v>5</v>
-      </c>
+      <c r="A6" s="15"/>
       <c r="B6" s="16">
-        <v>44081</v>
-      </c>
-      <c r="C6" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" s="17">
-        <v>1</v>
-      </c>
-      <c r="F6" s="32" t="s">
-        <v>8</v>
-      </c>
+        <v>44079</v>
+      </c>
+      <c r="C6" s="30"/>
+      <c r="D6" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="17"/>
+      <c r="F6" s="32"/>
       <c r="G6" s="33"/>
     </row>
     <row r="7" spans="1:7" s="34" customFormat="1">
-      <c r="A7" s="15">
-        <v>6</v>
-      </c>
+      <c r="A7" s="15"/>
       <c r="B7" s="16">
-        <v>44082</v>
-      </c>
-      <c r="C7" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7" s="17">
-        <v>1</v>
-      </c>
-      <c r="F7" s="32" t="s">
-        <v>8</v>
-      </c>
+        <v>44080</v>
+      </c>
+      <c r="C7" s="30"/>
+      <c r="D7" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="17"/>
+      <c r="F7" s="32"/>
       <c r="G7" s="33"/>
     </row>
     <row r="8" spans="1:7" s="34" customFormat="1">
       <c r="A8" s="15">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B8" s="16">
-        <v>44083</v>
+        <v>44081</v>
       </c>
       <c r="C8" s="30" t="s">
         <v>11</v>
@@ -884,10 +891,10 @@
     </row>
     <row r="9" spans="1:7" s="34" customFormat="1">
       <c r="A9" s="15">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B9" s="16">
-        <v>44084</v>
+        <v>44082</v>
       </c>
       <c r="C9" s="30" t="s">
         <v>11</v>
@@ -905,10 +912,10 @@
     </row>
     <row r="10" spans="1:7" s="34" customFormat="1">
       <c r="A10" s="15">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B10" s="16">
-        <v>44085</v>
+        <v>44083</v>
       </c>
       <c r="C10" s="30" t="s">
         <v>11</v>
@@ -926,10 +933,10 @@
     </row>
     <row r="11" spans="1:7" s="34" customFormat="1">
       <c r="A11" s="15">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B11" s="16">
-        <v>44088</v>
+        <v>44084</v>
       </c>
       <c r="C11" s="30" t="s">
         <v>11</v>
@@ -947,10 +954,10 @@
     </row>
     <row r="12" spans="1:7" s="34" customFormat="1">
       <c r="A12" s="15">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B12" s="16">
-        <v>44089</v>
+        <v>44085</v>
       </c>
       <c r="C12" s="30" t="s">
         <v>11</v>
@@ -967,53 +974,37 @@
       <c r="G12" s="33"/>
     </row>
     <row r="13" spans="1:7" s="34" customFormat="1">
-      <c r="A13" s="15">
-        <v>12</v>
-      </c>
+      <c r="A13" s="15"/>
       <c r="B13" s="16">
-        <v>44090</v>
-      </c>
-      <c r="C13" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="D13" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="E13" s="17">
-        <v>1</v>
-      </c>
-      <c r="F13" s="32" t="s">
-        <v>8</v>
-      </c>
+        <v>44086</v>
+      </c>
+      <c r="C13" s="30"/>
+      <c r="D13" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="E13" s="17"/>
+      <c r="F13" s="32"/>
       <c r="G13" s="33"/>
     </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="15">
-        <v>13</v>
-      </c>
+    <row r="14" spans="1:7" s="34" customFormat="1">
+      <c r="A14" s="15"/>
       <c r="B14" s="16">
-        <v>44091</v>
-      </c>
-      <c r="C14" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="D14" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="E14" s="17">
-        <v>1</v>
-      </c>
-      <c r="F14" s="32" t="s">
-        <v>8</v>
-      </c>
+        <v>44087</v>
+      </c>
+      <c r="C14" s="30"/>
+      <c r="D14" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="E14" s="17"/>
+      <c r="F14" s="32"/>
       <c r="G14" s="33"/>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" s="34" customFormat="1">
       <c r="A15" s="15">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B15" s="16">
-        <v>44092</v>
+        <v>44088</v>
       </c>
       <c r="C15" s="30" t="s">
         <v>11</v>
@@ -1029,60 +1020,54 @@
       </c>
       <c r="G15" s="33"/>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" s="34" customFormat="1">
       <c r="A16" s="15">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B16" s="16">
-        <v>44095</v>
+        <v>44089</v>
       </c>
       <c r="C16" s="30" t="s">
         <v>11</v>
       </c>
       <c r="D16" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="E16" s="17">
+        <v>1</v>
+      </c>
+      <c r="F16" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="G16" s="33"/>
+    </row>
+    <row r="17" spans="1:7" s="34" customFormat="1">
+      <c r="A17" s="15">
         <v>12</v>
       </c>
-      <c r="E16" s="17">
-        <v>1</v>
-      </c>
-      <c r="F16" s="32" t="s">
-        <v>8</v>
-      </c>
-      <c r="G16" s="33"/>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17" s="15">
-        <v>16</v>
-      </c>
       <c r="B17" s="16">
-        <v>44096</v>
-      </c>
-      <c r="C17" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="D17" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="E17" s="17">
-        <v>1</v>
-      </c>
-      <c r="F17" s="32" t="s">
-        <v>8</v>
-      </c>
+        <v>44090</v>
+      </c>
+      <c r="C17" s="30"/>
+      <c r="D17" s="44" t="s">
+        <v>15</v>
+      </c>
+      <c r="E17" s="17"/>
+      <c r="F17" s="32"/>
       <c r="G17" s="33"/>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="15">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B18" s="16">
-        <v>44097</v>
+        <v>44091</v>
       </c>
       <c r="C18" s="30" t="s">
         <v>11</v>
       </c>
       <c r="D18" s="30" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E18" s="17">
         <v>1</v>
@@ -1094,101 +1079,237 @@
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="15">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B19" s="16">
-        <v>44098</v>
+        <v>44092</v>
       </c>
       <c r="C19" s="30" t="s">
         <v>11</v>
       </c>
       <c r="D19" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="E19" s="17">
+        <v>1</v>
+      </c>
+      <c r="F19" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="G19" s="33"/>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="15"/>
+      <c r="B20" s="16">
+        <v>44093</v>
+      </c>
+      <c r="C20" s="30"/>
+      <c r="D20" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="E20" s="17"/>
+      <c r="F20" s="32"/>
+      <c r="G20" s="33"/>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="15"/>
+      <c r="B21" s="16">
+        <v>44094</v>
+      </c>
+      <c r="C21" s="30"/>
+      <c r="D21" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="E21" s="17"/>
+      <c r="F21" s="32"/>
+      <c r="G21" s="33"/>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="15">
+        <v>15</v>
+      </c>
+      <c r="B22" s="16">
+        <v>44095</v>
+      </c>
+      <c r="C22" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="D22" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="E19" s="17">
-        <v>1</v>
-      </c>
-      <c r="F19" s="32" t="s">
-        <v>8</v>
-      </c>
-      <c r="G19" s="33"/>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20" s="15">
+      <c r="E22" s="17">
+        <v>1</v>
+      </c>
+      <c r="F22" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="G22" s="33"/>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="15">
+        <v>16</v>
+      </c>
+      <c r="B23" s="16">
+        <v>44096</v>
+      </c>
+      <c r="C23" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="D23" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="E23" s="17">
+        <v>1</v>
+      </c>
+      <c r="F23" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="G23" s="33"/>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="15">
+        <v>17</v>
+      </c>
+      <c r="B24" s="16">
+        <v>44097</v>
+      </c>
+      <c r="C24" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="D24" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="E24" s="17">
+        <v>1</v>
+      </c>
+      <c r="F24" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="G24" s="33"/>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="15">
+        <v>18</v>
+      </c>
+      <c r="B25" s="16">
+        <v>44098</v>
+      </c>
+      <c r="C25" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="D25" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="E25" s="17">
+        <v>1</v>
+      </c>
+      <c r="F25" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="G25" s="33"/>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="15">
         <v>19</v>
       </c>
-      <c r="B20" s="16">
+      <c r="B26" s="16">
         <v>44099</v>
       </c>
-      <c r="C20" s="30" t="s">
+      <c r="C26" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="D20" s="30" t="s">
+      <c r="D26" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="E20" s="17">
-        <v>1</v>
-      </c>
-      <c r="F20" s="32" t="s">
-        <v>8</v>
-      </c>
-      <c r="G20" s="33"/>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21" s="15">
+      <c r="E26" s="17">
+        <v>1</v>
+      </c>
+      <c r="F26" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="G26" s="33"/>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="15"/>
+      <c r="B27" s="16">
+        <v>44100</v>
+      </c>
+      <c r="C27" s="30"/>
+      <c r="D27" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="E27" s="17"/>
+      <c r="F27" s="33"/>
+      <c r="G27" s="33"/>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="15"/>
+      <c r="B28" s="16">
+        <v>44101</v>
+      </c>
+      <c r="C28" s="30"/>
+      <c r="D28" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="E28" s="17"/>
+      <c r="F28" s="33"/>
+      <c r="G28" s="33"/>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="15">
         <v>20</v>
       </c>
-      <c r="B21" s="16">
+      <c r="B29" s="16">
         <v>44102</v>
       </c>
-      <c r="C21" s="30" t="s">
+      <c r="C29" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="D21" s="30" t="s">
+      <c r="D29" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="E21" s="17">
-        <v>1</v>
-      </c>
-      <c r="F21" s="32" t="s">
-        <v>8</v>
-      </c>
-      <c r="G21" s="33"/>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="A22" s="40"/>
-      <c r="B22" s="41"/>
-      <c r="C22" s="42"/>
-      <c r="D22" s="42"/>
-      <c r="E22" s="43"/>
-      <c r="G22" s="34"/>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="C23" s="35" t="s">
+      <c r="E29" s="17">
+        <v>1</v>
+      </c>
+      <c r="F29" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="G29" s="33"/>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="40"/>
+      <c r="B30" s="41"/>
+      <c r="C30" s="42"/>
+      <c r="D30" s="42"/>
+      <c r="E30" s="43"/>
+      <c r="G30" s="34"/>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="C31" s="35" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
-      <c r="B24" s="36"/>
-      <c r="C24" s="31" t="s">
+    <row r="32" spans="1:7">
+      <c r="B32" s="36"/>
+      <c r="C32" s="31" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
-      <c r="B25" s="37"/>
-      <c r="C25" s="31" t="s">
+    <row r="33" spans="2:3">
+      <c r="B33" s="37"/>
+      <c r="C33" s="31" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
-      <c r="B26" s="38"/>
-      <c r="C26" s="31" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
-      <c r="B27" s="39"/>
-      <c r="C27" s="31" t="s">
+    <row r="34" spans="2:3">
+      <c r="B34" s="38"/>
+      <c r="C34" s="31" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3">
+      <c r="B35" s="39"/>
+      <c r="C35" s="31" t="s">
         <v>9</v>
       </c>
     </row>

--- a/REVER_DailyTracker_20200928.xlsx
+++ b/REVER_DailyTracker_20200928.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\MVS\September\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78AE4279-7C0C-4D19-A700-B19E2D66A53F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71156A24-306D-4324-8E43-DE9D654B972E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{BDBCA639-774E-4870-AA16-72178DF9137C}"/>
   </bookViews>
@@ -772,8 +772,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:G81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="D76" sqref="D76"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="C81" sqref="C81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -968,6 +968,9 @@
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>6</v>
+      </c>
       <c r="B28" s="18">
         <v>44082</v>
       </c>
@@ -987,6 +990,9 @@
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>7</v>
+      </c>
       <c r="B31" s="18">
         <v>44083</v>
       </c>
@@ -1000,7 +1006,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>29</v>
       </c>
@@ -1011,7 +1017,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>32</v>
       </c>
@@ -1022,7 +1028,10 @@
         <v>31</v>
       </c>
     </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>8</v>
+      </c>
       <c r="B36" s="18">
         <v>44084</v>
       </c>
@@ -1036,12 +1045,15 @@
         <v>33</v>
       </c>
     </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="G37" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>9</v>
+      </c>
       <c r="B39" s="18">
         <v>44085</v>
       </c>
@@ -1055,7 +1067,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="D40" t="s">
         <v>73</v>
       </c>
@@ -1063,7 +1075,10 @@
         <v>36</v>
       </c>
     </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>10</v>
+      </c>
       <c r="B42" s="18">
         <v>44088</v>
       </c>
@@ -1077,7 +1092,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="D43" t="s">
         <v>75</v>
       </c>
@@ -1085,7 +1100,10 @@
         <v>38</v>
       </c>
     </row>
-    <row r="45" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>11</v>
+      </c>
       <c r="B45" s="18">
         <v>44089</v>
       </c>
@@ -1099,7 +1117,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="46" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="D46" t="s">
         <v>77</v>
       </c>
@@ -1107,7 +1125,10 @@
         <v>40</v>
       </c>
     </row>
-    <row r="48" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>12</v>
+      </c>
       <c r="B48" s="18">
         <v>44090</v>
       </c>
@@ -1121,7 +1142,10 @@
         <v>41</v>
       </c>
     </row>
-    <row r="50" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>13</v>
+      </c>
       <c r="B50" s="18">
         <v>44091</v>
       </c>
@@ -1135,7 +1159,10 @@
         <v>42</v>
       </c>
     </row>
-    <row r="52" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>14</v>
+      </c>
       <c r="B52" s="18">
         <v>44092</v>
       </c>
@@ -1149,12 +1176,15 @@
         <v>79</v>
       </c>
     </row>
-    <row r="53" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="G53" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="55" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>15</v>
+      </c>
       <c r="B55" s="18">
         <v>44095</v>
       </c>
@@ -1168,12 +1198,15 @@
         <v>45</v>
       </c>
     </row>
-    <row r="56" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="D56" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="58" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>16</v>
+      </c>
       <c r="B58" s="18">
         <v>44096</v>
       </c>
@@ -1187,7 +1220,10 @@
         <v>46</v>
       </c>
     </row>
-    <row r="60" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <v>17</v>
+      </c>
       <c r="B60" s="18">
         <v>44097</v>
       </c>
@@ -1201,7 +1237,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="61" spans="2:7" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
       <c r="C61" s="20" t="s">
         <v>48</v>
       </c>
@@ -1212,7 +1248,10 @@
         <v>49</v>
       </c>
     </row>
-    <row r="64" spans="2:7" ht="72" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+      <c r="A64" s="20">
+        <v>18</v>
+      </c>
       <c r="B64" s="22">
         <v>44098</v>
       </c>
@@ -1228,7 +1267,10 @@
         <v>50</v>
       </c>
     </row>
-    <row r="66" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A66">
+        <v>19</v>
+      </c>
       <c r="B66" s="18">
         <v>44099</v>
       </c>
@@ -1242,32 +1284,35 @@
         <v>51</v>
       </c>
     </row>
-    <row r="67" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
       <c r="G67" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="68" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="G68" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="69" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="G69" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="70" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
       <c r="G70" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="72" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
       <c r="G72" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="76" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A76">
+        <v>20</v>
+      </c>
       <c r="B76" s="18">
         <v>44102</v>
       </c>
@@ -1281,7 +1326,10 @@
         <v>57</v>
       </c>
     </row>
-    <row r="78" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A78">
+        <v>20</v>
+      </c>
       <c r="B78" s="18">
         <v>44102</v>
       </c>
@@ -1295,12 +1343,12 @@
         <v>58</v>
       </c>
     </row>
-    <row r="79" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
       <c r="G79" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="80" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
       <c r="G80" t="s">
         <v>60</v>
       </c>

--- a/REVER_DailyTracker_20200928.xlsx
+++ b/REVER_DailyTracker_20200928.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Monisha\Desktop\Daily_Tracker\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\mamatha\DailyTracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6803AFB0-1FF7-4470-8D3F-852FA2CC9C6C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F465E71-B080-494E-BC0F-AA9829771919}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="12360" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Balraj" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="481" uniqueCount="171">
   <si>
     <t>No</t>
   </si>
@@ -448,20 +448,136 @@
   <si>
     <t>2020-09028</t>
   </si>
+  <si>
+    <t>QMVAr-RPA</t>
+  </si>
+  <si>
+    <t>Purchase Summary issue on date</t>
+  </si>
+  <si>
+    <t>Corrected the date logic and tested</t>
+  </si>
+  <si>
+    <t>Hayaai-B2B</t>
+  </si>
+  <si>
+    <t>Working on B2B stored procedure in creating the company</t>
+  </si>
+  <si>
+    <t>Service Request -B2B issue tracker issues resolving</t>
+  </si>
+  <si>
+    <t>Sony-QMVAR</t>
+  </si>
+  <si>
+    <t>RMS MVS upload testing</t>
+  </si>
+  <si>
+    <t>RMS Invoice captcha integration with GOOGLE API</t>
+  </si>
+  <si>
+    <t>QMVAR-PR summary five days</t>
+  </si>
+  <si>
+    <t>Rahman San had given this task for credit info,had completed</t>
+  </si>
+  <si>
+    <t>Trying to resolve B2B issues from issue tracke</t>
+  </si>
+  <si>
+    <t>Trying to complete issues from issue tracker</t>
+  </si>
+  <si>
+    <t>QMVAR-Sony</t>
+  </si>
+  <si>
+    <t>RMS invoice captcha issues,relogin with recaptcha,error msg for 20 mins</t>
+  </si>
+  <si>
+    <t>Given code to Mohan sir</t>
+  </si>
+  <si>
+    <t>B2B-New api for product type addition</t>
+  </si>
+  <si>
+    <t>Product category api,IMEI check new API are developed</t>
+  </si>
+  <si>
+    <t>B2B issues from issue tracker</t>
+  </si>
+  <si>
+    <t>HAYAAI-B2B</t>
+  </si>
+  <si>
+    <t>Reports corrections and signup corrections</t>
+  </si>
+  <si>
+    <t>signup corrections and table corrections</t>
+  </si>
+  <si>
+    <t>Search errors in Service Request and Jib correction</t>
+  </si>
+  <si>
+    <t>HAYAAI-B2C</t>
+  </si>
+  <si>
+    <t>Issue description passing to Jobs failure</t>
+  </si>
+  <si>
+    <t>HAYAAI-B2B and B2C</t>
+  </si>
+  <si>
+    <t>Few corrections in B2B APP and flow on Pick Delivery change for B2C reviewing</t>
+  </si>
+  <si>
+    <t>DRS Count - Saw Discount with out discount</t>
+  </si>
+  <si>
+    <t>Warranty Status to be saved in Add Devices</t>
+  </si>
+  <si>
+    <t>Pickup delivery new update customer info passing to Job</t>
+  </si>
+  <si>
+    <t>New Push Notification while technician starting for Job</t>
+  </si>
+  <si>
+    <t>HAYAAI-QMVAR</t>
+  </si>
+  <si>
+    <t>B2B- Testing</t>
+  </si>
+  <si>
+    <t>New functionality adding new API for technician tracking</t>
+  </si>
+  <si>
+    <t>Pickup time correction as it was not stored correctly</t>
+  </si>
+  <si>
+    <t>Issue corrections from issue tracker</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="[$-14009]yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="166" formatCode="[$-14009]mm/dd/yyyy;@"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -523,7 +639,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -563,6 +679,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -681,15 +803,15 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -697,12 +819,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -729,7 +851,7 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -738,16 +860,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
@@ -756,14 +878,14 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -776,12 +898,12 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -795,24 +917,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -846,6 +950,51 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2558,19 +2707,19 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:G26"/>
+  <dimension ref="A1:G27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="6.109375" customWidth="1"/>
     <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="3" max="3" width="21.5546875" customWidth="1"/>
     <col min="4" max="4" width="44.6640625" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" style="79" customWidth="1"/>
     <col min="6" max="6" width="18.109375" customWidth="1"/>
     <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
@@ -2588,7 +2737,7 @@
       <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="76" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="3" t="s">
@@ -2599,71 +2748,474 @@
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="4"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="4"/>
+      <c r="A2" s="4">
+        <v>1</v>
+      </c>
+      <c r="B2" s="72">
+        <v>44075</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="E2" s="77">
+        <v>1</v>
+      </c>
+      <c r="F2" s="83" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>137</v>
+      </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="8"/>
+      <c r="A3" s="4">
+        <v>2</v>
+      </c>
+      <c r="B3" s="72">
+        <v>44076</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="E3" s="77">
+        <v>0.8</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>6</v>
+      </c>
       <c r="G3" s="4"/>
     </row>
-    <row r="4" spans="1:7" s="1" customFormat="1"/>
-    <row r="5" spans="1:7" s="1" customFormat="1"/>
-    <row r="6" spans="1:7" s="1" customFormat="1"/>
-    <row r="7" spans="1:7" s="1" customFormat="1"/>
-    <row r="8" spans="1:7" s="1" customFormat="1"/>
-    <row r="9" spans="1:7" s="1" customFormat="1"/>
-    <row r="10" spans="1:7" s="1" customFormat="1"/>
-    <row r="11" spans="1:7" s="1" customFormat="1"/>
-    <row r="12" spans="1:7" s="1" customFormat="1"/>
-    <row r="13" spans="1:7" s="1" customFormat="1"/>
-    <row r="14" spans="1:7" s="1" customFormat="1"/>
-    <row r="15" spans="1:7" s="1" customFormat="1"/>
-    <row r="16" spans="1:7" s="1" customFormat="1"/>
-    <row r="17" spans="2:3" s="1" customFormat="1"/>
-    <row r="18" spans="2:3" s="1" customFormat="1"/>
-    <row r="19" spans="2:3" s="1" customFormat="1"/>
-    <row r="22" spans="2:3">
-      <c r="C22" s="9" t="s">
+    <row r="4" spans="1:7" s="1" customFormat="1">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="73">
+        <v>44077</v>
+      </c>
+      <c r="C4" s="84" t="s">
+        <v>132</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="E4" s="78">
+        <v>0.4</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" s="1" customFormat="1">
+      <c r="A5" s="86">
+        <v>4</v>
+      </c>
+      <c r="B5" s="73">
+        <v>44078</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="E5" s="78">
+        <v>0.8</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" s="1" customFormat="1">
+      <c r="A6" s="86">
         <v>5</v>
       </c>
-    </row>
-    <row r="23" spans="2:3">
-      <c r="B23" s="10"/>
+      <c r="B6" s="73">
+        <v>44081</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="E6" s="78">
+        <v>0.6</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" s="1" customFormat="1">
+      <c r="A7" s="86">
+        <v>6</v>
+      </c>
+      <c r="B7" s="73">
+        <v>44082</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="E7" s="78">
+        <v>1</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" s="1" customFormat="1">
+      <c r="A8" s="86">
+        <v>7</v>
+      </c>
+      <c r="B8" s="73">
+        <v>44083</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="E8" s="78">
+        <v>0.4</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" s="1" customFormat="1">
+      <c r="A9" s="86">
+        <v>8</v>
+      </c>
+      <c r="B9" s="73">
+        <v>44084</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="E9" s="78">
+        <v>0.6</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" s="1" customFormat="1">
+      <c r="A10" s="86">
+        <v>9</v>
+      </c>
+      <c r="B10" s="73">
+        <v>44085</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="E10" s="78">
+        <v>0.8</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" s="1" customFormat="1">
+      <c r="A11" s="86">
+        <v>10</v>
+      </c>
+      <c r="B11" s="73">
+        <v>44088</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="E11" s="78">
+        <v>0.6</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" s="1" customFormat="1">
+      <c r="A12" s="86">
+        <v>11</v>
+      </c>
+      <c r="B12" s="73">
+        <v>44089</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="E12" s="78">
+        <v>1</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" s="1" customFormat="1">
+      <c r="A13" s="86">
+        <v>12</v>
+      </c>
+      <c r="B13" s="73">
+        <v>44090</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="E13" s="78">
+        <v>1</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" s="1" customFormat="1">
+      <c r="A14" s="86">
+        <v>13</v>
+      </c>
+      <c r="B14" s="73">
+        <v>44091</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="E14" s="78">
+        <v>0.7</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" s="1" customFormat="1">
+      <c r="A15" s="86">
+        <v>14</v>
+      </c>
+      <c r="B15" s="74">
+        <v>44092</v>
+      </c>
+      <c r="C15" s="85" t="s">
+        <v>154</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="E15" s="77">
+        <v>0.8</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" s="1" customFormat="1">
+      <c r="A16" s="86">
+        <v>15</v>
+      </c>
+      <c r="B16" s="73">
+        <v>44093</v>
+      </c>
+      <c r="C16" s="84" t="s">
+        <v>154</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="E16" s="78">
+        <v>1</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" s="1" customFormat="1">
+      <c r="A17" s="86">
+        <v>16</v>
+      </c>
+      <c r="B17" s="74">
+        <v>44095</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="E17" s="77">
+        <v>0.7</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" s="1" customFormat="1" ht="28.8">
+      <c r="A18" s="86">
+        <v>17</v>
+      </c>
+      <c r="B18" s="73">
+        <v>44096</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="D18" s="75" t="s">
+        <v>161</v>
+      </c>
+      <c r="E18" s="78">
+        <v>0.7</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" s="1" customFormat="1">
+      <c r="A19" s="86">
+        <v>18</v>
+      </c>
+      <c r="B19" s="73">
+        <v>44097</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="E19" s="78">
+        <v>1</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="D20" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21" s="51">
+        <v>44098</v>
+      </c>
+      <c r="C21" s="81" t="s">
+        <v>154</v>
+      </c>
+      <c r="D21" t="s">
+        <v>164</v>
+      </c>
+      <c r="E21" s="80">
+        <v>1</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="C22" s="9"/>
+      <c r="D22" t="s">
+        <v>165</v>
+      </c>
+      <c r="E22" s="80">
+        <v>0.6</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23">
+        <v>20</v>
+      </c>
+      <c r="B23" s="82">
+        <v>44099</v>
+      </c>
       <c r="C23" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="24" spans="2:3">
-      <c r="B24" s="11"/>
-      <c r="C24" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="25" spans="2:3">
-      <c r="B25" s="12"/>
-      <c r="C25" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="26" spans="2:3">
-      <c r="B26" s="13"/>
-      <c r="C26" t="s">
-        <v>9</v>
+        <v>166</v>
+      </c>
+      <c r="D23" t="s">
+        <v>167</v>
+      </c>
+      <c r="E23" s="80">
+        <v>1</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="D24" t="s">
+        <v>168</v>
+      </c>
+      <c r="E24" s="80">
+        <v>1</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="D25" t="s">
+        <v>169</v>
+      </c>
+      <c r="E25" s="80">
+        <v>1</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27">
+        <v>21</v>
+      </c>
+      <c r="B27" s="82">
+        <v>44102</v>
+      </c>
+      <c r="C27" s="81" t="s">
+        <v>154</v>
+      </c>
+      <c r="D27" s="81" t="s">
+        <v>170</v>
+      </c>
+      <c r="E27" s="80">
+        <v>0.5</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2671,8 +3223,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -2716,16 +3268,16 @@
       <c r="B2" s="19">
         <v>44075</v>
       </c>
-      <c r="C2" s="61" t="s">
+      <c r="C2" s="55" t="s">
         <v>109</v>
       </c>
-      <c r="D2" s="61" t="s">
+      <c r="D2" s="55" t="s">
         <v>110</v>
       </c>
       <c r="E2" s="21" t="s">
         <v>111</v>
       </c>
-      <c r="F2" s="62" t="s">
+      <c r="F2" s="56" t="s">
         <v>6</v>
       </c>
       <c r="G2" s="4"/>
@@ -2737,16 +3289,16 @@
       <c r="B3" s="19">
         <v>44076</v>
       </c>
-      <c r="C3" s="61" t="s">
+      <c r="C3" s="55" t="s">
         <v>109</v>
       </c>
-      <c r="D3" s="63" t="s">
+      <c r="D3" s="57" t="s">
         <v>112</v>
       </c>
       <c r="E3" s="21" t="s">
         <v>113</v>
       </c>
-      <c r="F3" s="64" t="s">
+      <c r="F3" s="58" t="s">
         <v>8</v>
       </c>
       <c r="G3" s="4"/>
@@ -2758,16 +3310,16 @@
       <c r="B4" s="19">
         <v>44077</v>
       </c>
-      <c r="C4" s="61" t="s">
+      <c r="C4" s="55" t="s">
         <v>114</v>
       </c>
-      <c r="D4" s="63" t="s">
+      <c r="D4" s="57" t="s">
         <v>115</v>
       </c>
       <c r="E4" s="21" t="s">
         <v>116</v>
       </c>
-      <c r="F4" s="62" t="s">
+      <c r="F4" s="56" t="s">
         <v>6</v>
       </c>
       <c r="G4" s="4"/>
@@ -2779,16 +3331,16 @@
       <c r="B5" s="19">
         <v>44078</v>
       </c>
-      <c r="C5" s="61" t="s">
+      <c r="C5" s="55" t="s">
         <v>114</v>
       </c>
-      <c r="D5" s="63" t="s">
+      <c r="D5" s="57" t="s">
         <v>117</v>
       </c>
       <c r="E5" s="21">
         <v>0.4</v>
       </c>
-      <c r="F5" s="62" t="s">
+      <c r="F5" s="56" t="s">
         <v>6</v>
       </c>
       <c r="G5" s="4"/>
@@ -2800,16 +3352,16 @@
       <c r="B6" s="19">
         <v>44081</v>
       </c>
-      <c r="C6" s="61" t="s">
+      <c r="C6" s="55" t="s">
         <v>114</v>
       </c>
-      <c r="D6" s="63" t="s">
+      <c r="D6" s="57" t="s">
         <v>118</v>
       </c>
       <c r="E6" s="21">
         <v>0.75</v>
       </c>
-      <c r="F6" s="62" t="s">
+      <c r="F6" s="56" t="s">
         <v>6</v>
       </c>
       <c r="G6" s="4"/>
@@ -2821,16 +3373,16 @@
       <c r="B7" s="19">
         <v>44082</v>
       </c>
-      <c r="C7" s="61" t="s">
+      <c r="C7" s="55" t="s">
         <v>114</v>
       </c>
-      <c r="D7" s="63" t="s">
+      <c r="D7" s="57" t="s">
         <v>119</v>
       </c>
       <c r="E7" s="21">
         <v>0.85</v>
       </c>
-      <c r="F7" s="62" t="s">
+      <c r="F7" s="56" t="s">
         <v>6</v>
       </c>
       <c r="G7" s="4"/>
@@ -2842,16 +3394,16 @@
       <c r="B8" s="19">
         <v>44083</v>
       </c>
-      <c r="C8" s="61" t="s">
+      <c r="C8" s="55" t="s">
         <v>114</v>
       </c>
-      <c r="D8" s="63" t="s">
+      <c r="D8" s="57" t="s">
         <v>120</v>
       </c>
       <c r="E8" s="21">
         <v>1</v>
       </c>
-      <c r="F8" s="64" t="s">
+      <c r="F8" s="58" t="s">
         <v>8</v>
       </c>
       <c r="G8" s="4"/>
@@ -2863,16 +3415,16 @@
       <c r="B9" s="19">
         <v>44084</v>
       </c>
-      <c r="C9" s="61" t="s">
+      <c r="C9" s="55" t="s">
         <v>114</v>
       </c>
-      <c r="D9" s="63" t="s">
+      <c r="D9" s="57" t="s">
         <v>121</v>
       </c>
       <c r="E9" s="21">
         <v>1</v>
       </c>
-      <c r="F9" s="62" t="s">
+      <c r="F9" s="56" t="s">
         <v>6</v>
       </c>
       <c r="G9" s="4"/>
@@ -2884,16 +3436,16 @@
       <c r="B10" s="19">
         <v>44085</v>
       </c>
-      <c r="C10" s="61" t="s">
+      <c r="C10" s="55" t="s">
         <v>114</v>
       </c>
-      <c r="D10" s="63" t="s">
+      <c r="D10" s="57" t="s">
         <v>122</v>
       </c>
       <c r="E10" s="21">
         <v>0.7</v>
       </c>
-      <c r="F10" s="62" t="s">
+      <c r="F10" s="56" t="s">
         <v>6</v>
       </c>
       <c r="G10" s="4"/>
@@ -2905,16 +3457,16 @@
       <c r="B11" s="19">
         <v>44088</v>
       </c>
-      <c r="C11" s="61" t="s">
+      <c r="C11" s="55" t="s">
         <v>114</v>
       </c>
-      <c r="D11" s="63" t="s">
+      <c r="D11" s="57" t="s">
         <v>122</v>
       </c>
       <c r="E11" s="21">
         <v>0.75</v>
       </c>
-      <c r="F11" s="62" t="s">
+      <c r="F11" s="56" t="s">
         <v>6</v>
       </c>
       <c r="G11" s="4"/>
@@ -2926,16 +3478,16 @@
       <c r="B12" s="19">
         <v>44089</v>
       </c>
-      <c r="C12" s="61" t="s">
+      <c r="C12" s="55" t="s">
         <v>114</v>
       </c>
-      <c r="D12" s="63" t="s">
+      <c r="D12" s="57" t="s">
         <v>122</v>
       </c>
       <c r="E12" s="21">
         <v>0.8</v>
       </c>
-      <c r="F12" s="62" t="s">
+      <c r="F12" s="56" t="s">
         <v>6</v>
       </c>
       <c r="G12" s="4"/>
@@ -2947,16 +3499,16 @@
       <c r="B13" s="19">
         <v>44090</v>
       </c>
-      <c r="C13" s="61" t="s">
+      <c r="C13" s="55" t="s">
         <v>114</v>
       </c>
-      <c r="D13" s="63" t="s">
+      <c r="D13" s="57" t="s">
         <v>123</v>
       </c>
       <c r="E13" s="21">
         <v>0.85</v>
       </c>
-      <c r="F13" s="62" t="s">
+      <c r="F13" s="56" t="s">
         <v>6</v>
       </c>
       <c r="G13" s="4"/>
@@ -2968,16 +3520,16 @@
       <c r="B14" s="19">
         <v>44091</v>
       </c>
-      <c r="C14" s="61" t="s">
+      <c r="C14" s="55" t="s">
         <v>114</v>
       </c>
-      <c r="D14" s="63" t="s">
+      <c r="D14" s="57" t="s">
         <v>124</v>
       </c>
       <c r="E14" s="21">
         <v>0.95</v>
       </c>
-      <c r="F14" s="62" t="s">
+      <c r="F14" s="56" t="s">
         <v>6</v>
       </c>
       <c r="G14" s="4"/>
@@ -2989,16 +3541,16 @@
       <c r="B15" s="19">
         <v>44092</v>
       </c>
-      <c r="C15" s="61" t="s">
+      <c r="C15" s="55" t="s">
         <v>114</v>
       </c>
-      <c r="D15" s="63" t="s">
+      <c r="D15" s="57" t="s">
         <v>125</v>
       </c>
       <c r="E15" s="21">
         <v>1</v>
       </c>
-      <c r="F15" s="65" t="s">
+      <c r="F15" s="59" t="s">
         <v>8</v>
       </c>
       <c r="G15" s="4"/>
@@ -3010,16 +3562,16 @@
       <c r="B16" s="19">
         <v>44095</v>
       </c>
-      <c r="C16" s="61" t="s">
+      <c r="C16" s="55" t="s">
         <v>126</v>
       </c>
-      <c r="D16" s="63" t="s">
+      <c r="D16" s="57" t="s">
         <v>127</v>
       </c>
       <c r="E16" s="21">
         <v>0.6</v>
       </c>
-      <c r="F16" s="66" t="s">
+      <c r="F16" s="60" t="s">
         <v>6</v>
       </c>
       <c r="G16" s="4"/>
@@ -3031,16 +3583,16 @@
       <c r="B17" s="19">
         <v>44096</v>
       </c>
-      <c r="C17" s="61" t="s">
+      <c r="C17" s="55" t="s">
         <v>128</v>
       </c>
-      <c r="D17" s="63" t="s">
+      <c r="D17" s="57" t="s">
         <v>129</v>
       </c>
       <c r="E17" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="F17" s="66" t="s">
+      <c r="F17" s="60" t="s">
         <v>6</v>
       </c>
       <c r="G17" s="4"/>
@@ -3052,10 +3604,10 @@
       <c r="B18" s="19">
         <v>44097</v>
       </c>
-      <c r="C18" s="61" t="s">
+      <c r="C18" s="55" t="s">
         <v>31</v>
       </c>
-      <c r="D18" s="63" t="s">
+      <c r="D18" s="57" t="s">
         <v>131</v>
       </c>
       <c r="E18" s="21">
@@ -3073,16 +3625,16 @@
       <c r="B19" s="19">
         <v>44098</v>
       </c>
-      <c r="C19" s="61" t="s">
+      <c r="C19" s="55" t="s">
         <v>132</v>
       </c>
-      <c r="D19" s="63" t="s">
+      <c r="D19" s="57" t="s">
         <v>133</v>
       </c>
       <c r="E19" s="21">
         <v>0.35</v>
       </c>
-      <c r="F19" s="66" t="s">
+      <c r="F19" s="60" t="s">
         <v>6</v>
       </c>
       <c r="G19" s="4"/>
@@ -3094,16 +3646,16 @@
       <c r="B20" s="19">
         <v>44099</v>
       </c>
-      <c r="C20" s="61" t="s">
+      <c r="C20" s="55" t="s">
         <v>132</v>
       </c>
-      <c r="D20" s="63" t="s">
+      <c r="D20" s="57" t="s">
         <v>133</v>
       </c>
       <c r="E20" s="21">
         <v>0.7</v>
       </c>
-      <c r="F20" s="66" t="s">
+      <c r="F20" s="60" t="s">
         <v>6</v>
       </c>
       <c r="G20" s="4"/>
@@ -3112,13 +3664,13 @@
       <c r="A21" s="18">
         <v>20</v>
       </c>
-      <c r="B21" s="67" t="s">
+      <c r="B21" s="61" t="s">
         <v>134</v>
       </c>
-      <c r="C21" s="61" t="s">
+      <c r="C21" s="55" t="s">
         <v>132</v>
       </c>
-      <c r="D21" s="63" t="s">
+      <c r="D21" s="57" t="s">
         <v>133</v>
       </c>
       <c r="E21" s="21">
@@ -3131,17 +3683,17 @@
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="48"/>
-      <c r="B22" s="68"/>
-      <c r="C22" s="69"/>
-      <c r="D22" s="70"/>
-      <c r="E22" s="71"/>
+      <c r="B22" s="62"/>
+      <c r="C22" s="63"/>
+      <c r="D22" s="64"/>
+      <c r="E22" s="65"/>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="48"/>
-      <c r="B23" s="68"/>
-      <c r="C23" s="69"/>
-      <c r="D23" s="70"/>
-      <c r="E23" s="71"/>
+      <c r="B23" s="62"/>
+      <c r="C23" s="63"/>
+      <c r="D23" s="64"/>
+      <c r="E23" s="65"/>
     </row>
     <row r="24" spans="1:7">
       <c r="C24" s="46" t="s">
@@ -3525,12 +4077,12 @@
       <c r="B6" s="19">
         <v>44079</v>
       </c>
-      <c r="C6" s="55" t="s">
+      <c r="C6" s="66" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="56"/>
-      <c r="E6" s="56"/>
-      <c r="F6" s="57"/>
+      <c r="D6" s="67"/>
+      <c r="E6" s="67"/>
+      <c r="F6" s="68"/>
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="1:7">
@@ -3540,10 +4092,10 @@
       <c r="B7" s="19">
         <v>44080</v>
       </c>
-      <c r="C7" s="58"/>
-      <c r="D7" s="59"/>
-      <c r="E7" s="59"/>
-      <c r="F7" s="60"/>
+      <c r="C7" s="69"/>
+      <c r="D7" s="70"/>
+      <c r="E7" s="70"/>
+      <c r="F7" s="71"/>
       <c r="G7" s="4"/>
     </row>
     <row r="8" spans="1:7">
@@ -3648,12 +4200,12 @@
       <c r="B13" s="19">
         <v>44086</v>
       </c>
-      <c r="C13" s="55" t="s">
+      <c r="C13" s="66" t="s">
         <v>22</v>
       </c>
-      <c r="D13" s="56"/>
-      <c r="E13" s="56"/>
-      <c r="F13" s="57"/>
+      <c r="D13" s="67"/>
+      <c r="E13" s="67"/>
+      <c r="F13" s="68"/>
       <c r="G13" s="4"/>
     </row>
     <row r="14" spans="1:7">
@@ -3663,10 +4215,10 @@
       <c r="B14" s="19">
         <v>44087</v>
       </c>
-      <c r="C14" s="58"/>
-      <c r="D14" s="59"/>
-      <c r="E14" s="59"/>
-      <c r="F14" s="60"/>
+      <c r="C14" s="69"/>
+      <c r="D14" s="70"/>
+      <c r="E14" s="70"/>
+      <c r="F14" s="71"/>
       <c r="G14" s="4"/>
     </row>
     <row r="15" spans="1:7">
@@ -3771,12 +4323,12 @@
       <c r="B20" s="19">
         <v>44093</v>
       </c>
-      <c r="C20" s="55" t="s">
+      <c r="C20" s="66" t="s">
         <v>22</v>
       </c>
-      <c r="D20" s="56"/>
-      <c r="E20" s="56"/>
-      <c r="F20" s="57"/>
+      <c r="D20" s="67"/>
+      <c r="E20" s="67"/>
+      <c r="F20" s="68"/>
       <c r="G20" s="4"/>
     </row>
     <row r="21" spans="1:7">
@@ -3786,10 +4338,10 @@
       <c r="B21" s="19">
         <v>44094</v>
       </c>
-      <c r="C21" s="58"/>
-      <c r="D21" s="59"/>
-      <c r="E21" s="59"/>
-      <c r="F21" s="60"/>
+      <c r="C21" s="69"/>
+      <c r="D21" s="70"/>
+      <c r="E21" s="70"/>
+      <c r="F21" s="71"/>
       <c r="G21" s="4"/>
     </row>
     <row r="22" spans="1:7">

--- a/REVER_DailyTracker_20200928.xlsx
+++ b/REVER_DailyTracker_20200928.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\mamatha\DailyTracker\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rever\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F465E71-B080-494E-BC0F-AA9829771919}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA4C7727-36B2-4B89-9554-4B1B665ED12A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="12360" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Balraj" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="481" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="541" uniqueCount="200">
   <si>
     <t>No</t>
   </si>
@@ -555,6 +555,93 @@
   </si>
   <si>
     <t>Issue corrections from issue tracker</t>
+  </si>
+  <si>
+    <t>MrMAX_Mtr, MRMax Wrn</t>
+  </si>
+  <si>
+    <t>Soniya, selenium log file</t>
+  </si>
+  <si>
+    <t>MRMax Import</t>
+  </si>
+  <si>
+    <t>Vastu, selenium log file</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vastu pages design, selenium log file count </t>
+  </si>
+  <si>
+    <t>Wip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vastu Master pages design, selenium log file count </t>
+  </si>
+  <si>
+    <t>Sat &amp; Sun</t>
+  </si>
+  <si>
+    <t>Selenium log file Verifications</t>
+  </si>
+  <si>
+    <t>Selenium log file count , and Manually Upload Warranty All SSC'S (AUG,SEP(QMVAR))</t>
+  </si>
+  <si>
+    <t>Selenium log file count , and Manually Upload Warranty All SSC'S(JULY(QMVAR))</t>
+  </si>
+  <si>
+    <t>Selenium log file Verifications, Soniya Project</t>
+  </si>
+  <si>
+    <t>Selenium log file count , and Invoice Update OOW, IW,EXW, record verification, Kuroganeya_INQUIRY</t>
+  </si>
+  <si>
+    <t>Selenium log file count , Soniya Project (Kuroganeya)</t>
+  </si>
+  <si>
+    <t>Selenium log file count , Soniya Project (Kuroganeya_REP)</t>
+  </si>
+  <si>
+    <t>Selenium log file Verifications, Soniya Project Migration</t>
+  </si>
+  <si>
+    <t>Selenium log file count , Soniya Project (STREAM)</t>
+  </si>
+  <si>
+    <t>Selenium log file count , Soniya Project (S5, best_ivc_close_return)</t>
+  </si>
+  <si>
+    <t>Selenium log file count , Soniya Project (admin)</t>
+  </si>
+  <si>
+    <t>Selenium log file count , Soniya Project (BIG_Input)</t>
+  </si>
+  <si>
+    <t>Selenium log file count , Soniya Project (Homac_Import), Warranty Issue check(SSC1)</t>
+  </si>
+  <si>
+    <t>Selenium log file Verifications, QMVAR</t>
+  </si>
+  <si>
+    <t>Selenium log file count , QMVAR Monthly_Reservationvation(File Upload And Export)</t>
+  </si>
+  <si>
+    <t>Selenium log file count , QMVAR Monthly_Repairset(File Upload And Export)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> QMVAR</t>
+  </si>
+  <si>
+    <t>QMVAR Monthly_Repairset(File Upload And Export)</t>
+  </si>
+  <si>
+    <t>Selenium log file count , QMVAR SID1 Testing(File Upload And Export)</t>
+  </si>
+  <si>
+    <t>Selenium log file Verifications, Soniya</t>
+  </si>
+  <si>
+    <t>Selenium log file count , Soniya(nMVAR_Ai)</t>
   </si>
 </sst>
 </file>
@@ -563,9 +650,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="[$-14009]yyyy\-mm\-dd;@"/>
-    <numFmt numFmtId="166" formatCode="[$-14009]mm/dd/yyyy;@"/>
+    <numFmt numFmtId="165" formatCode="[$-14009]mm/dd/yyyy;@"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -637,6 +724,11 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Docs-Calibri"/>
     </font>
   </fonts>
   <fills count="9">
@@ -807,7 +899,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="87">
+  <cellXfs count="98">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -950,27 +1042,9 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -990,11 +1064,58 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2709,7 +2830,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:G27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
@@ -2719,7 +2840,7 @@
     <col min="2" max="2" width="13.5546875" customWidth="1"/>
     <col min="3" max="3" width="21.5546875" customWidth="1"/>
     <col min="4" max="4" width="44.6640625" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" style="79" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" style="73" customWidth="1"/>
     <col min="6" max="6" width="18.109375" customWidth="1"/>
     <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
@@ -2737,7 +2858,7 @@
       <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="76" t="s">
+      <c r="E1" s="70" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="3" t="s">
@@ -2751,7 +2872,7 @@
       <c r="A2" s="4">
         <v>1</v>
       </c>
-      <c r="B2" s="72">
+      <c r="B2" s="66">
         <v>44075</v>
       </c>
       <c r="C2" s="4" t="s">
@@ -2760,10 +2881,10 @@
       <c r="D2" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="E2" s="77">
-        <v>1</v>
-      </c>
-      <c r="F2" s="83" t="s">
+      <c r="E2" s="71">
+        <v>1</v>
+      </c>
+      <c r="F2" s="77" t="s">
         <v>8</v>
       </c>
       <c r="G2" s="4" t="s">
@@ -2774,7 +2895,7 @@
       <c r="A3" s="4">
         <v>2</v>
       </c>
-      <c r="B3" s="72">
+      <c r="B3" s="66">
         <v>44076</v>
       </c>
       <c r="C3" s="4" t="s">
@@ -2783,7 +2904,7 @@
       <c r="D3" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="E3" s="77">
+      <c r="E3" s="71">
         <v>0.8</v>
       </c>
       <c r="F3" s="7" t="s">
@@ -2795,16 +2916,16 @@
       <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="73">
+      <c r="B4" s="67">
         <v>44077</v>
       </c>
-      <c r="C4" s="84" t="s">
+      <c r="C4" s="78" t="s">
         <v>132</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="E4" s="78">
+      <c r="E4" s="72">
         <v>0.4</v>
       </c>
       <c r="F4" s="7" t="s">
@@ -2812,10 +2933,10 @@
       </c>
     </row>
     <row r="5" spans="1:7" s="1" customFormat="1">
-      <c r="A5" s="86">
+      <c r="A5" s="80">
         <v>4</v>
       </c>
-      <c r="B5" s="73">
+      <c r="B5" s="67">
         <v>44078</v>
       </c>
       <c r="C5" s="1" t="s">
@@ -2824,7 +2945,7 @@
       <c r="D5" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="E5" s="78">
+      <c r="E5" s="72">
         <v>0.8</v>
       </c>
       <c r="F5" s="7" t="s">
@@ -2832,10 +2953,10 @@
       </c>
     </row>
     <row r="6" spans="1:7" s="1" customFormat="1">
-      <c r="A6" s="86">
+      <c r="A6" s="80">
         <v>5</v>
       </c>
-      <c r="B6" s="73">
+      <c r="B6" s="67">
         <v>44081</v>
       </c>
       <c r="C6" s="1" t="s">
@@ -2844,7 +2965,7 @@
       <c r="D6" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="E6" s="78">
+      <c r="E6" s="72">
         <v>0.6</v>
       </c>
       <c r="F6" s="7" t="s">
@@ -2852,10 +2973,10 @@
       </c>
     </row>
     <row r="7" spans="1:7" s="1" customFormat="1">
-      <c r="A7" s="86">
-        <v>6</v>
-      </c>
-      <c r="B7" s="73">
+      <c r="A7" s="80">
+        <v>6</v>
+      </c>
+      <c r="B7" s="67">
         <v>44082</v>
       </c>
       <c r="C7" s="1" t="s">
@@ -2864,7 +2985,7 @@
       <c r="D7" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="E7" s="78">
+      <c r="E7" s="72">
         <v>1</v>
       </c>
       <c r="F7" s="1" t="s">
@@ -2872,10 +2993,10 @@
       </c>
     </row>
     <row r="8" spans="1:7" s="1" customFormat="1">
-      <c r="A8" s="86">
+      <c r="A8" s="80">
         <v>7</v>
       </c>
-      <c r="B8" s="73">
+      <c r="B8" s="67">
         <v>44083</v>
       </c>
       <c r="C8" s="1" t="s">
@@ -2884,7 +3005,7 @@
       <c r="D8" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="E8" s="78">
+      <c r="E8" s="72">
         <v>0.4</v>
       </c>
       <c r="F8" s="7" t="s">
@@ -2892,10 +3013,10 @@
       </c>
     </row>
     <row r="9" spans="1:7" s="1" customFormat="1">
-      <c r="A9" s="86">
-        <v>8</v>
-      </c>
-      <c r="B9" s="73">
+      <c r="A9" s="80">
+        <v>8</v>
+      </c>
+      <c r="B9" s="67">
         <v>44084</v>
       </c>
       <c r="C9" s="1" t="s">
@@ -2904,7 +3025,7 @@
       <c r="D9" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="E9" s="78">
+      <c r="E9" s="72">
         <v>0.6</v>
       </c>
       <c r="F9" s="7" t="s">
@@ -2912,10 +3033,10 @@
       </c>
     </row>
     <row r="10" spans="1:7" s="1" customFormat="1">
-      <c r="A10" s="86">
+      <c r="A10" s="80">
         <v>9</v>
       </c>
-      <c r="B10" s="73">
+      <c r="B10" s="67">
         <v>44085</v>
       </c>
       <c r="C10" s="1" t="s">
@@ -2924,7 +3045,7 @@
       <c r="D10" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="E10" s="78">
+      <c r="E10" s="72">
         <v>0.8</v>
       </c>
       <c r="F10" s="7" t="s">
@@ -2935,10 +3056,10 @@
       </c>
     </row>
     <row r="11" spans="1:7" s="1" customFormat="1">
-      <c r="A11" s="86">
+      <c r="A11" s="80">
         <v>10</v>
       </c>
-      <c r="B11" s="73">
+      <c r="B11" s="67">
         <v>44088</v>
       </c>
       <c r="C11" s="1" t="s">
@@ -2947,7 +3068,7 @@
       <c r="D11" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="E11" s="78">
+      <c r="E11" s="72">
         <v>0.6</v>
       </c>
       <c r="F11" s="7" t="s">
@@ -2955,10 +3076,10 @@
       </c>
     </row>
     <row r="12" spans="1:7" s="1" customFormat="1">
-      <c r="A12" s="86">
+      <c r="A12" s="80">
         <v>11</v>
       </c>
-      <c r="B12" s="73">
+      <c r="B12" s="67">
         <v>44089</v>
       </c>
       <c r="C12" s="1" t="s">
@@ -2967,7 +3088,7 @@
       <c r="D12" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="E12" s="78">
+      <c r="E12" s="72">
         <v>1</v>
       </c>
       <c r="F12" s="1" t="s">
@@ -2975,10 +3096,10 @@
       </c>
     </row>
     <row r="13" spans="1:7" s="1" customFormat="1">
-      <c r="A13" s="86">
+      <c r="A13" s="80">
         <v>12</v>
       </c>
-      <c r="B13" s="73">
+      <c r="B13" s="67">
         <v>44090</v>
       </c>
       <c r="C13" s="1" t="s">
@@ -2987,7 +3108,7 @@
       <c r="D13" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="E13" s="78">
+      <c r="E13" s="72">
         <v>1</v>
       </c>
       <c r="F13" s="1" t="s">
@@ -2995,10 +3116,10 @@
       </c>
     </row>
     <row r="14" spans="1:7" s="1" customFormat="1">
-      <c r="A14" s="86">
+      <c r="A14" s="80">
         <v>13</v>
       </c>
-      <c r="B14" s="73">
+      <c r="B14" s="67">
         <v>44091</v>
       </c>
       <c r="C14" s="1" t="s">
@@ -3007,7 +3128,7 @@
       <c r="D14" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="E14" s="78">
+      <c r="E14" s="72">
         <v>0.7</v>
       </c>
       <c r="F14" s="7" t="s">
@@ -3015,19 +3136,19 @@
       </c>
     </row>
     <row r="15" spans="1:7" s="1" customFormat="1">
-      <c r="A15" s="86">
+      <c r="A15" s="80">
         <v>14</v>
       </c>
-      <c r="B15" s="74">
+      <c r="B15" s="68">
         <v>44092</v>
       </c>
-      <c r="C15" s="85" t="s">
+      <c r="C15" s="79" t="s">
         <v>154</v>
       </c>
       <c r="D15" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="E15" s="77">
+      <c r="E15" s="71">
         <v>0.8</v>
       </c>
       <c r="F15" s="7" t="s">
@@ -3035,19 +3156,19 @@
       </c>
     </row>
     <row r="16" spans="1:7" s="1" customFormat="1">
-      <c r="A16" s="86">
+      <c r="A16" s="80">
         <v>15</v>
       </c>
-      <c r="B16" s="73">
+      <c r="B16" s="67">
         <v>44093</v>
       </c>
-      <c r="C16" s="84" t="s">
+      <c r="C16" s="78" t="s">
         <v>154</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="E16" s="78">
+      <c r="E16" s="72">
         <v>1</v>
       </c>
       <c r="F16" s="1" t="s">
@@ -3055,10 +3176,10 @@
       </c>
     </row>
     <row r="17" spans="1:6" s="1" customFormat="1">
-      <c r="A17" s="86">
+      <c r="A17" s="80">
         <v>16</v>
       </c>
-      <c r="B17" s="74">
+      <c r="B17" s="68">
         <v>44095</v>
       </c>
       <c r="C17" s="4" t="s">
@@ -3067,7 +3188,7 @@
       <c r="D17" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="E17" s="77">
+      <c r="E17" s="71">
         <v>0.7</v>
       </c>
       <c r="F17" s="7" t="s">
@@ -3075,19 +3196,19 @@
       </c>
     </row>
     <row r="18" spans="1:6" s="1" customFormat="1" ht="28.8">
-      <c r="A18" s="86">
+      <c r="A18" s="80">
         <v>17</v>
       </c>
-      <c r="B18" s="73">
+      <c r="B18" s="67">
         <v>44096</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="D18" s="75" t="s">
+      <c r="D18" s="69" t="s">
         <v>161</v>
       </c>
-      <c r="E18" s="78">
+      <c r="E18" s="72">
         <v>0.7</v>
       </c>
       <c r="F18" s="7" t="s">
@@ -3095,10 +3216,10 @@
       </c>
     </row>
     <row r="19" spans="1:6" s="1" customFormat="1">
-      <c r="A19" s="86">
+      <c r="A19" s="80">
         <v>18</v>
       </c>
-      <c r="B19" s="73">
+      <c r="B19" s="67">
         <v>44097</v>
       </c>
       <c r="C19" s="1" t="s">
@@ -3107,7 +3228,7 @@
       <c r="D19" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="E19" s="78">
+      <c r="E19" s="72">
         <v>1</v>
       </c>
       <c r="F19" s="1" t="s">
@@ -3126,13 +3247,13 @@
       <c r="B21" s="51">
         <v>44098</v>
       </c>
-      <c r="C21" s="81" t="s">
+      <c r="C21" s="75" t="s">
         <v>154</v>
       </c>
       <c r="D21" t="s">
         <v>164</v>
       </c>
-      <c r="E21" s="80">
+      <c r="E21" s="74">
         <v>1</v>
       </c>
       <c r="F21" s="1" t="s">
@@ -3144,7 +3265,7 @@
       <c r="D22" t="s">
         <v>165</v>
       </c>
-      <c r="E22" s="80">
+      <c r="E22" s="74">
         <v>0.6</v>
       </c>
       <c r="F22" s="7" t="s">
@@ -3155,7 +3276,7 @@
       <c r="A23">
         <v>20</v>
       </c>
-      <c r="B23" s="82">
+      <c r="B23" s="76">
         <v>44099</v>
       </c>
       <c r="C23" t="s">
@@ -3164,7 +3285,7 @@
       <c r="D23" t="s">
         <v>167</v>
       </c>
-      <c r="E23" s="80">
+      <c r="E23" s="74">
         <v>1</v>
       </c>
       <c r="F23" s="1" t="s">
@@ -3175,7 +3296,7 @@
       <c r="D24" t="s">
         <v>168</v>
       </c>
-      <c r="E24" s="80">
+      <c r="E24" s="74">
         <v>1</v>
       </c>
       <c r="F24" s="1" t="s">
@@ -3186,7 +3307,7 @@
       <c r="D25" t="s">
         <v>169</v>
       </c>
-      <c r="E25" s="80">
+      <c r="E25" s="74">
         <v>1</v>
       </c>
       <c r="F25" s="1" t="s">
@@ -3197,16 +3318,16 @@
       <c r="A27">
         <v>21</v>
       </c>
-      <c r="B27" s="82">
+      <c r="B27" s="76">
         <v>44102</v>
       </c>
-      <c r="C27" s="81" t="s">
+      <c r="C27" s="75" t="s">
         <v>154</v>
       </c>
-      <c r="D27" s="81" t="s">
+      <c r="D27" s="75" t="s">
         <v>170</v>
       </c>
-      <c r="E27" s="80">
+      <c r="E27" s="74">
         <v>0.5</v>
       </c>
       <c r="F27" s="7" t="s">
@@ -3843,10 +3964,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:G26"/>
+  <dimension ref="A1:G39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="E14:F16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -3884,69 +4005,529 @@
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="4"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="7"/>
+      <c r="A2" s="4">
+        <v>1</v>
+      </c>
+      <c r="B2" s="19">
+        <v>44075</v>
+      </c>
+      <c r="C2" s="55" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" s="87" t="s">
+        <v>171</v>
+      </c>
+      <c r="E2" s="6">
+        <v>1</v>
+      </c>
+      <c r="F2" s="88" t="s">
+        <v>8</v>
+      </c>
       <c r="G2" s="4"/>
     </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="8"/>
+    <row r="3" spans="1:7" ht="28.8">
+      <c r="A3" s="4">
+        <v>2</v>
+      </c>
+      <c r="B3" s="19">
+        <v>44076</v>
+      </c>
+      <c r="C3" s="55" t="s">
+        <v>172</v>
+      </c>
+      <c r="D3" s="87" t="s">
+        <v>173</v>
+      </c>
+      <c r="E3" s="6">
+        <v>1</v>
+      </c>
+      <c r="F3" s="88" t="s">
+        <v>8</v>
+      </c>
       <c r="G3" s="4"/>
     </row>
-    <row r="4" spans="1:7" s="1" customFormat="1"/>
-    <row r="5" spans="1:7" s="1" customFormat="1"/>
-    <row r="6" spans="1:7" s="1" customFormat="1"/>
-    <row r="7" spans="1:7" s="1" customFormat="1"/>
-    <row r="8" spans="1:7" s="1" customFormat="1"/>
-    <row r="9" spans="1:7" s="1" customFormat="1"/>
-    <row r="10" spans="1:7" s="1" customFormat="1"/>
-    <row r="11" spans="1:7" s="1" customFormat="1"/>
-    <row r="12" spans="1:7" s="1" customFormat="1"/>
-    <row r="13" spans="1:7" s="1" customFormat="1"/>
-    <row r="14" spans="1:7" s="1" customFormat="1"/>
-    <row r="15" spans="1:7" s="1" customFormat="1"/>
-    <row r="16" spans="1:7" s="1" customFormat="1"/>
-    <row r="17" spans="2:3" s="1" customFormat="1"/>
-    <row r="18" spans="2:3" s="1" customFormat="1"/>
-    <row r="19" spans="2:3" s="1" customFormat="1"/>
-    <row r="22" spans="2:3">
-      <c r="C22" s="9" t="s">
+    <row r="4" spans="1:7" s="1" customFormat="1" ht="28.8">
+      <c r="A4" s="4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="19">
+        <v>44077</v>
+      </c>
+      <c r="C4" s="55" t="s">
+        <v>174</v>
+      </c>
+      <c r="D4" s="55" t="s">
+        <v>175</v>
+      </c>
+      <c r="E4" s="89">
+        <v>0.5</v>
+      </c>
+      <c r="F4" s="90" t="s">
+        <v>176</v>
+      </c>
+      <c r="G4" s="4"/>
+    </row>
+    <row r="5" spans="1:7" s="1" customFormat="1" ht="28.8">
+      <c r="A5" s="4">
+        <v>4</v>
+      </c>
+      <c r="B5" s="19">
+        <v>44078</v>
+      </c>
+      <c r="C5" s="55" t="s">
+        <v>174</v>
+      </c>
+      <c r="D5" s="55" t="s">
+        <v>177</v>
+      </c>
+      <c r="E5" s="6">
+        <v>1</v>
+      </c>
+      <c r="F5" s="88" t="s">
+        <v>8</v>
+      </c>
+      <c r="G5" s="4"/>
+    </row>
+    <row r="6" spans="1:7" s="1" customFormat="1">
+      <c r="A6" s="4">
         <v>5</v>
       </c>
-    </row>
-    <row r="23" spans="2:3">
-      <c r="B23" s="10"/>
-      <c r="C23" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="24" spans="2:3">
-      <c r="B24" s="11"/>
-      <c r="C24" t="s">
+      <c r="B6" s="19">
+        <v>44079</v>
+      </c>
+      <c r="C6" s="91" t="s">
+        <v>178</v>
+      </c>
+      <c r="D6" s="92"/>
+      <c r="E6" s="92"/>
+      <c r="F6" s="92"/>
+      <c r="G6" s="93"/>
+    </row>
+    <row r="7" spans="1:7" s="1" customFormat="1">
+      <c r="A7" s="4">
+        <v>6</v>
+      </c>
+      <c r="B7" s="19">
+        <v>44049</v>
+      </c>
+      <c r="C7" s="94"/>
+      <c r="D7" s="95"/>
+      <c r="E7" s="95"/>
+      <c r="F7" s="95"/>
+      <c r="G7" s="96"/>
+    </row>
+    <row r="8" spans="1:7" s="1" customFormat="1" ht="28.8">
+      <c r="A8" s="4">
         <v>7</v>
       </c>
-    </row>
-    <row r="25" spans="2:3">
-      <c r="B25" s="12"/>
-      <c r="C25" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="26" spans="2:3">
-      <c r="B26" s="13"/>
-      <c r="C26" t="s">
+      <c r="B8" s="19">
+        <v>44081</v>
+      </c>
+      <c r="C8" s="55" t="s">
+        <v>179</v>
+      </c>
+      <c r="D8" s="55" t="s">
+        <v>180</v>
+      </c>
+      <c r="E8" s="6">
+        <v>1</v>
+      </c>
+      <c r="F8" s="88" t="s">
+        <v>8</v>
+      </c>
+      <c r="G8" s="4"/>
+    </row>
+    <row r="9" spans="1:7" s="1" customFormat="1" ht="28.8">
+      <c r="A9" s="4">
+        <v>8</v>
+      </c>
+      <c r="B9" s="19">
+        <v>44082</v>
+      </c>
+      <c r="C9" s="55" t="s">
+        <v>179</v>
+      </c>
+      <c r="D9" s="55" t="s">
+        <v>181</v>
+      </c>
+      <c r="E9" s="6">
+        <v>1</v>
+      </c>
+      <c r="F9" s="88" t="s">
+        <v>8</v>
+      </c>
+      <c r="G9" s="4"/>
+    </row>
+    <row r="10" spans="1:7" s="1" customFormat="1" ht="43.2">
+      <c r="A10" s="4">
         <v>9</v>
       </c>
+      <c r="B10" s="19">
+        <v>44083</v>
+      </c>
+      <c r="C10" s="55" t="s">
+        <v>182</v>
+      </c>
+      <c r="D10" s="55" t="s">
+        <v>183</v>
+      </c>
+      <c r="E10" s="6">
+        <v>1</v>
+      </c>
+      <c r="F10" s="88" t="s">
+        <v>8</v>
+      </c>
+      <c r="G10" s="4"/>
+    </row>
+    <row r="11" spans="1:7" s="1" customFormat="1" ht="43.2">
+      <c r="A11" s="4">
+        <v>10</v>
+      </c>
+      <c r="B11" s="19">
+        <v>44084</v>
+      </c>
+      <c r="C11" s="55" t="s">
+        <v>182</v>
+      </c>
+      <c r="D11" s="55" t="s">
+        <v>184</v>
+      </c>
+      <c r="E11" s="6">
+        <v>1</v>
+      </c>
+      <c r="F11" s="88" t="s">
+        <v>8</v>
+      </c>
+      <c r="G11" s="4"/>
+    </row>
+    <row r="12" spans="1:7" s="1" customFormat="1" ht="43.2">
+      <c r="A12" s="4">
+        <v>11</v>
+      </c>
+      <c r="B12" s="19">
+        <v>44085</v>
+      </c>
+      <c r="C12" s="55" t="s">
+        <v>182</v>
+      </c>
+      <c r="D12" s="55" t="s">
+        <v>185</v>
+      </c>
+      <c r="E12" s="6">
+        <v>1</v>
+      </c>
+      <c r="F12" s="88" t="s">
+        <v>8</v>
+      </c>
+      <c r="G12" s="4"/>
+    </row>
+    <row r="13" spans="1:7" s="1" customFormat="1">
+      <c r="A13" s="4">
+        <v>12</v>
+      </c>
+      <c r="B13" s="19">
+        <v>44086</v>
+      </c>
+      <c r="C13" s="91" t="s">
+        <v>178</v>
+      </c>
+      <c r="D13" s="92"/>
+      <c r="E13" s="92"/>
+      <c r="F13" s="92"/>
+      <c r="G13" s="93"/>
+    </row>
+    <row r="14" spans="1:7" s="1" customFormat="1">
+      <c r="A14" s="4">
+        <v>13</v>
+      </c>
+      <c r="B14" s="19">
+        <v>44087</v>
+      </c>
+      <c r="C14" s="94"/>
+      <c r="D14" s="95"/>
+      <c r="E14" s="95"/>
+      <c r="F14" s="95"/>
+      <c r="G14" s="96"/>
+    </row>
+    <row r="15" spans="1:7" s="1" customFormat="1" ht="57.6">
+      <c r="A15" s="4">
+        <v>14</v>
+      </c>
+      <c r="B15" s="19">
+        <v>44088</v>
+      </c>
+      <c r="C15" s="55" t="s">
+        <v>186</v>
+      </c>
+      <c r="D15" s="55" t="s">
+        <v>187</v>
+      </c>
+      <c r="E15" s="6">
+        <v>1</v>
+      </c>
+      <c r="F15" s="88" t="s">
+        <v>8</v>
+      </c>
+      <c r="G15" s="4"/>
+    </row>
+    <row r="16" spans="1:7" s="1" customFormat="1" ht="57.6">
+      <c r="A16" s="4">
+        <v>15</v>
+      </c>
+      <c r="B16" s="19">
+        <v>44089</v>
+      </c>
+      <c r="C16" s="55" t="s">
+        <v>186</v>
+      </c>
+      <c r="D16" s="55" t="s">
+        <v>188</v>
+      </c>
+      <c r="E16" s="6">
+        <v>1</v>
+      </c>
+      <c r="F16" s="88" t="s">
+        <v>8</v>
+      </c>
+      <c r="G16" s="4"/>
+    </row>
+    <row r="17" spans="1:7" s="1" customFormat="1" ht="57.6">
+      <c r="A17" s="4">
+        <v>16</v>
+      </c>
+      <c r="B17" s="19">
+        <v>44090</v>
+      </c>
+      <c r="C17" s="55" t="s">
+        <v>186</v>
+      </c>
+      <c r="D17" s="55" t="s">
+        <v>189</v>
+      </c>
+      <c r="E17" s="6">
+        <v>1</v>
+      </c>
+      <c r="F17" s="88" t="s">
+        <v>8</v>
+      </c>
+      <c r="G17" s="4"/>
+    </row>
+    <row r="18" spans="1:7" s="1" customFormat="1" ht="57.6">
+      <c r="A18" s="4">
+        <v>17</v>
+      </c>
+      <c r="B18" s="19">
+        <v>44091</v>
+      </c>
+      <c r="C18" s="55" t="s">
+        <v>186</v>
+      </c>
+      <c r="D18" s="55" t="s">
+        <v>190</v>
+      </c>
+      <c r="E18" s="6">
+        <v>1</v>
+      </c>
+      <c r="F18" s="88" t="s">
+        <v>8</v>
+      </c>
+      <c r="G18" s="4"/>
+    </row>
+    <row r="19" spans="1:7" s="1" customFormat="1" ht="57.6">
+      <c r="A19" s="4">
+        <v>18</v>
+      </c>
+      <c r="B19" s="19">
+        <v>44092</v>
+      </c>
+      <c r="C19" s="55" t="s">
+        <v>186</v>
+      </c>
+      <c r="D19" s="55" t="s">
+        <v>191</v>
+      </c>
+      <c r="E19" s="6">
+        <v>1</v>
+      </c>
+      <c r="F19" s="88" t="s">
+        <v>8</v>
+      </c>
+      <c r="G19" s="4"/>
+    </row>
+    <row r="20" spans="1:7" s="1" customFormat="1">
+      <c r="A20" s="4">
+        <v>19</v>
+      </c>
+      <c r="B20" s="19">
+        <v>44093</v>
+      </c>
+      <c r="C20" s="91" t="s">
+        <v>178</v>
+      </c>
+      <c r="D20" s="92"/>
+      <c r="E20" s="92"/>
+      <c r="F20" s="92"/>
+      <c r="G20" s="93"/>
+    </row>
+    <row r="21" spans="1:7" s="1" customFormat="1">
+      <c r="A21" s="4">
+        <v>20</v>
+      </c>
+      <c r="B21" s="19">
+        <v>44094</v>
+      </c>
+      <c r="C21" s="94"/>
+      <c r="D21" s="95"/>
+      <c r="E21" s="95"/>
+      <c r="F21" s="95"/>
+      <c r="G21" s="96"/>
+    </row>
+    <row r="22" spans="1:7" s="1" customFormat="1" ht="43.2">
+      <c r="A22" s="4">
+        <v>21</v>
+      </c>
+      <c r="B22" s="19">
+        <v>44095</v>
+      </c>
+      <c r="C22" s="55" t="s">
+        <v>192</v>
+      </c>
+      <c r="D22" s="55" t="s">
+        <v>193</v>
+      </c>
+      <c r="E22" s="6">
+        <v>1</v>
+      </c>
+      <c r="F22" s="88" t="s">
+        <v>8</v>
+      </c>
+      <c r="G22" s="4"/>
+    </row>
+    <row r="23" spans="1:7" s="1" customFormat="1" ht="43.2">
+      <c r="A23" s="4">
+        <v>22</v>
+      </c>
+      <c r="B23" s="19">
+        <v>44096</v>
+      </c>
+      <c r="C23" s="55" t="s">
+        <v>192</v>
+      </c>
+      <c r="D23" s="55" t="s">
+        <v>194</v>
+      </c>
+      <c r="E23" s="89">
+        <v>0.5</v>
+      </c>
+      <c r="F23" s="97" t="s">
+        <v>176</v>
+      </c>
+      <c r="G23" s="4"/>
+    </row>
+    <row r="24" spans="1:7" s="1" customFormat="1">
+      <c r="A24" s="4">
+        <v>23</v>
+      </c>
+      <c r="B24" s="19">
+        <v>44097</v>
+      </c>
+      <c r="C24" s="55" t="s">
+        <v>195</v>
+      </c>
+      <c r="D24" s="55" t="s">
+        <v>196</v>
+      </c>
+      <c r="E24" s="6">
+        <v>1</v>
+      </c>
+      <c r="F24" s="88" t="s">
+        <v>8</v>
+      </c>
+      <c r="G24" s="4"/>
+    </row>
+    <row r="25" spans="1:7" s="1" customFormat="1" ht="43.2">
+      <c r="A25" s="4">
+        <v>24</v>
+      </c>
+      <c r="B25" s="19">
+        <v>44098</v>
+      </c>
+      <c r="C25" s="55" t="s">
+        <v>192</v>
+      </c>
+      <c r="D25" s="55" t="s">
+        <v>197</v>
+      </c>
+      <c r="E25" s="6">
+        <v>1</v>
+      </c>
+      <c r="F25" s="88" t="s">
+        <v>8</v>
+      </c>
+      <c r="G25" s="4"/>
+    </row>
+    <row r="26" spans="1:7" s="1" customFormat="1" ht="43.2">
+      <c r="A26" s="4">
+        <v>25</v>
+      </c>
+      <c r="B26" s="19">
+        <v>44099</v>
+      </c>
+      <c r="C26" s="55" t="s">
+        <v>198</v>
+      </c>
+      <c r="D26" s="55" t="s">
+        <v>199</v>
+      </c>
+      <c r="E26" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="F26" s="97" t="s">
+        <v>176</v>
+      </c>
+      <c r="G26" s="4"/>
+    </row>
+    <row r="27" spans="1:7" s="1" customFormat="1"/>
+    <row r="28" spans="1:7" s="1" customFormat="1"/>
+    <row r="29" spans="1:7" s="1" customFormat="1"/>
+    <row r="30" spans="1:7" s="1" customFormat="1"/>
+    <row r="31" spans="1:7" s="1" customFormat="1"/>
+    <row r="32" spans="1:7" s="1" customFormat="1"/>
+    <row r="35" spans="2:3">
+      <c r="C35" s="9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="2:3">
+      <c r="B36" s="10"/>
+      <c r="C36" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" spans="2:3">
+      <c r="B37" s="11"/>
+      <c r="C37" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38" spans="2:3">
+      <c r="B38" s="12"/>
+      <c r="C38" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39" spans="2:3">
+      <c r="B39" s="13"/>
+      <c r="C39" t="s">
+        <v>9</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="C6:G7"/>
+    <mergeCell ref="C13:G14"/>
+    <mergeCell ref="C20:G21"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
 </worksheet>
@@ -4077,12 +4658,12 @@
       <c r="B6" s="19">
         <v>44079</v>
       </c>
-      <c r="C6" s="66" t="s">
+      <c r="C6" s="81" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="67"/>
-      <c r="E6" s="67"/>
-      <c r="F6" s="68"/>
+      <c r="D6" s="82"/>
+      <c r="E6" s="82"/>
+      <c r="F6" s="83"/>
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="1:7">
@@ -4092,10 +4673,10 @@
       <c r="B7" s="19">
         <v>44080</v>
       </c>
-      <c r="C7" s="69"/>
-      <c r="D7" s="70"/>
-      <c r="E7" s="70"/>
-      <c r="F7" s="71"/>
+      <c r="C7" s="84"/>
+      <c r="D7" s="85"/>
+      <c r="E7" s="85"/>
+      <c r="F7" s="86"/>
       <c r="G7" s="4"/>
     </row>
     <row r="8" spans="1:7">
@@ -4200,12 +4781,12 @@
       <c r="B13" s="19">
         <v>44086</v>
       </c>
-      <c r="C13" s="66" t="s">
+      <c r="C13" s="81" t="s">
         <v>22</v>
       </c>
-      <c r="D13" s="67"/>
-      <c r="E13" s="67"/>
-      <c r="F13" s="68"/>
+      <c r="D13" s="82"/>
+      <c r="E13" s="82"/>
+      <c r="F13" s="83"/>
       <c r="G13" s="4"/>
     </row>
     <row r="14" spans="1:7">
@@ -4215,10 +4796,10 @@
       <c r="B14" s="19">
         <v>44087</v>
       </c>
-      <c r="C14" s="69"/>
-      <c r="D14" s="70"/>
-      <c r="E14" s="70"/>
-      <c r="F14" s="71"/>
+      <c r="C14" s="84"/>
+      <c r="D14" s="85"/>
+      <c r="E14" s="85"/>
+      <c r="F14" s="86"/>
       <c r="G14" s="4"/>
     </row>
     <row r="15" spans="1:7">
@@ -4323,12 +4904,12 @@
       <c r="B20" s="19">
         <v>44093</v>
       </c>
-      <c r="C20" s="66" t="s">
+      <c r="C20" s="81" t="s">
         <v>22</v>
       </c>
-      <c r="D20" s="67"/>
-      <c r="E20" s="67"/>
-      <c r="F20" s="68"/>
+      <c r="D20" s="82"/>
+      <c r="E20" s="82"/>
+      <c r="F20" s="83"/>
       <c r="G20" s="4"/>
     </row>
     <row r="21" spans="1:7">
@@ -4338,10 +4919,10 @@
       <c r="B21" s="19">
         <v>44094</v>
       </c>
-      <c r="C21" s="69"/>
-      <c r="D21" s="70"/>
-      <c r="E21" s="70"/>
-      <c r="F21" s="71"/>
+      <c r="C21" s="84"/>
+      <c r="D21" s="85"/>
+      <c r="E21" s="85"/>
+      <c r="F21" s="86"/>
       <c r="G21" s="4"/>
     </row>
     <row r="22" spans="1:7">

--- a/REVER_DailyTracker_20200928.xlsx
+++ b/REVER_DailyTracker_20200928.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rever\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\mamatha\DailyTracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA4C7727-36B2-4B89-9554-4B1B665ED12A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2E61509-BD42-4544-A71D-084F1273731D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="12360" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Balraj" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="541" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="545" uniqueCount="202">
   <si>
     <t>No</t>
   </si>
@@ -554,9 +554,6 @@
     <t>Pickup time correction as it was not stored correctly</t>
   </si>
   <si>
-    <t>Issue corrections from issue tracker</t>
-  </si>
-  <si>
     <t>MrMAX_Mtr, MRMax Wrn</t>
   </si>
   <si>
@@ -642,6 +639,15 @@
   </si>
   <si>
     <t>Selenium log file count , Soniya(nMVAR_Ai)</t>
+  </si>
+  <si>
+    <t>Jobs search by sr_no and job_no was not working,corrected the queries to display partial search also</t>
+  </si>
+  <si>
+    <t>Pickup technician start needs condition for which jobs need to be started.Hence have added the code for that.Need Pickup status will be have this button</t>
+  </si>
+  <si>
+    <t>InvoiceupdateOW error was given by Mohan Sir,tested and found the root cause to be the element is not loaded,hence have increased time .Tested and given the code.</t>
   </si>
 </sst>
 </file>
@@ -652,12 +658,19 @@
     <numFmt numFmtId="164" formatCode="[$-14009]yyyy\-mm\-dd;@"/>
     <numFmt numFmtId="165" formatCode="[$-14009]mm/dd/yyyy;@"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -895,15 +908,15 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="98">
+  <cellXfs count="100">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -911,12 +924,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -943,7 +956,7 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -952,16 +965,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
@@ -970,14 +983,14 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -990,12 +1003,12 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1048,7 +1061,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -1063,31 +1076,13 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1097,25 +1092,47 @@
     <xf numFmtId="9" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2828,10 +2845,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:G27"/>
+  <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -2839,7 +2856,7 @@
     <col min="1" max="1" width="6.109375" customWidth="1"/>
     <col min="2" max="2" width="13.5546875" customWidth="1"/>
     <col min="3" max="3" width="21.5546875" customWidth="1"/>
-    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="4" max="4" width="54.88671875" customWidth="1"/>
     <col min="5" max="5" width="18.88671875" style="73" customWidth="1"/>
     <col min="6" max="6" width="18.109375" customWidth="1"/>
     <col min="7" max="7" width="48.6640625" customWidth="1"/>
@@ -3165,7 +3182,7 @@
       <c r="C16" s="78" t="s">
         <v>154</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="D16" s="86" t="s">
         <v>157</v>
       </c>
       <c r="E16" s="72">
@@ -3314,7 +3331,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" ht="43.2">
       <c r="A27">
         <v>21</v>
       </c>
@@ -3324,15 +3341,46 @@
       <c r="C27" s="75" t="s">
         <v>154</v>
       </c>
-      <c r="D27" s="75" t="s">
-        <v>170</v>
+      <c r="D27" s="87" t="s">
+        <v>200</v>
       </c>
       <c r="E27" s="74">
-        <v>0.5</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>6</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="D28" s="50"/>
+    </row>
+    <row r="29" spans="1:6" ht="28.8">
+      <c r="D29" s="50" t="s">
+        <v>199</v>
+      </c>
+      <c r="E29" s="74">
+        <v>1</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="D30" s="50"/>
+    </row>
+    <row r="31" spans="1:6" ht="43.2">
+      <c r="D31" s="87" t="s">
+        <v>201</v>
+      </c>
+      <c r="E31" s="74">
+        <v>1</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="D32" s="50"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3966,7 +4014,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:G39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
@@ -4014,13 +4062,13 @@
       <c r="C2" s="55" t="s">
         <v>35</v>
       </c>
-      <c r="D2" s="87" t="s">
-        <v>171</v>
+      <c r="D2" s="81" t="s">
+        <v>170</v>
       </c>
       <c r="E2" s="6">
         <v>1</v>
       </c>
-      <c r="F2" s="88" t="s">
+      <c r="F2" s="82" t="s">
         <v>8</v>
       </c>
       <c r="G2" s="4"/>
@@ -4033,15 +4081,15 @@
         <v>44076</v>
       </c>
       <c r="C3" s="55" t="s">
+        <v>171</v>
+      </c>
+      <c r="D3" s="81" t="s">
         <v>172</v>
       </c>
-      <c r="D3" s="87" t="s">
-        <v>173</v>
-      </c>
       <c r="E3" s="6">
         <v>1</v>
       </c>
-      <c r="F3" s="88" t="s">
+      <c r="F3" s="82" t="s">
         <v>8</v>
       </c>
       <c r="G3" s="4"/>
@@ -4054,16 +4102,16 @@
         <v>44077</v>
       </c>
       <c r="C4" s="55" t="s">
+        <v>173</v>
+      </c>
+      <c r="D4" s="55" t="s">
         <v>174</v>
       </c>
-      <c r="D4" s="55" t="s">
+      <c r="E4" s="83">
+        <v>0.5</v>
+      </c>
+      <c r="F4" s="84" t="s">
         <v>175</v>
-      </c>
-      <c r="E4" s="89">
-        <v>0.5</v>
-      </c>
-      <c r="F4" s="90" t="s">
-        <v>176</v>
       </c>
       <c r="G4" s="4"/>
     </row>
@@ -4075,15 +4123,15 @@
         <v>44078</v>
       </c>
       <c r="C5" s="55" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D5" s="55" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E5" s="6">
         <v>1</v>
       </c>
-      <c r="F5" s="88" t="s">
+      <c r="F5" s="82" t="s">
         <v>8</v>
       </c>
       <c r="G5" s="4"/>
@@ -4095,13 +4143,13 @@
       <c r="B6" s="19">
         <v>44079</v>
       </c>
-      <c r="C6" s="91" t="s">
-        <v>178</v>
-      </c>
-      <c r="D6" s="92"/>
-      <c r="E6" s="92"/>
-      <c r="F6" s="92"/>
-      <c r="G6" s="93"/>
+      <c r="C6" s="88" t="s">
+        <v>177</v>
+      </c>
+      <c r="D6" s="89"/>
+      <c r="E6" s="89"/>
+      <c r="F6" s="89"/>
+      <c r="G6" s="90"/>
     </row>
     <row r="7" spans="1:7" s="1" customFormat="1">
       <c r="A7" s="4">
@@ -4110,11 +4158,11 @@
       <c r="B7" s="19">
         <v>44049</v>
       </c>
-      <c r="C7" s="94"/>
-      <c r="D7" s="95"/>
-      <c r="E7" s="95"/>
-      <c r="F7" s="95"/>
-      <c r="G7" s="96"/>
+      <c r="C7" s="91"/>
+      <c r="D7" s="92"/>
+      <c r="E7" s="92"/>
+      <c r="F7" s="92"/>
+      <c r="G7" s="93"/>
     </row>
     <row r="8" spans="1:7" s="1" customFormat="1" ht="28.8">
       <c r="A8" s="4">
@@ -4124,15 +4172,15 @@
         <v>44081</v>
       </c>
       <c r="C8" s="55" t="s">
+        <v>178</v>
+      </c>
+      <c r="D8" s="55" t="s">
         <v>179</v>
       </c>
-      <c r="D8" s="55" t="s">
-        <v>180</v>
-      </c>
       <c r="E8" s="6">
         <v>1</v>
       </c>
-      <c r="F8" s="88" t="s">
+      <c r="F8" s="82" t="s">
         <v>8</v>
       </c>
       <c r="G8" s="4"/>
@@ -4145,15 +4193,15 @@
         <v>44082</v>
       </c>
       <c r="C9" s="55" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D9" s="55" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E9" s="6">
         <v>1</v>
       </c>
-      <c r="F9" s="88" t="s">
+      <c r="F9" s="82" t="s">
         <v>8</v>
       </c>
       <c r="G9" s="4"/>
@@ -4166,15 +4214,15 @@
         <v>44083</v>
       </c>
       <c r="C10" s="55" t="s">
+        <v>181</v>
+      </c>
+      <c r="D10" s="55" t="s">
         <v>182</v>
       </c>
-      <c r="D10" s="55" t="s">
-        <v>183</v>
-      </c>
       <c r="E10" s="6">
         <v>1</v>
       </c>
-      <c r="F10" s="88" t="s">
+      <c r="F10" s="82" t="s">
         <v>8</v>
       </c>
       <c r="G10" s="4"/>
@@ -4187,15 +4235,15 @@
         <v>44084</v>
       </c>
       <c r="C11" s="55" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D11" s="55" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E11" s="6">
         <v>1</v>
       </c>
-      <c r="F11" s="88" t="s">
+      <c r="F11" s="82" t="s">
         <v>8</v>
       </c>
       <c r="G11" s="4"/>
@@ -4208,15 +4256,15 @@
         <v>44085</v>
       </c>
       <c r="C12" s="55" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D12" s="55" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E12" s="6">
         <v>1</v>
       </c>
-      <c r="F12" s="88" t="s">
+      <c r="F12" s="82" t="s">
         <v>8</v>
       </c>
       <c r="G12" s="4"/>
@@ -4228,13 +4276,13 @@
       <c r="B13" s="19">
         <v>44086</v>
       </c>
-      <c r="C13" s="91" t="s">
-        <v>178</v>
-      </c>
-      <c r="D13" s="92"/>
-      <c r="E13" s="92"/>
-      <c r="F13" s="92"/>
-      <c r="G13" s="93"/>
+      <c r="C13" s="88" t="s">
+        <v>177</v>
+      </c>
+      <c r="D13" s="89"/>
+      <c r="E13" s="89"/>
+      <c r="F13" s="89"/>
+      <c r="G13" s="90"/>
     </row>
     <row r="14" spans="1:7" s="1" customFormat="1">
       <c r="A14" s="4">
@@ -4243,11 +4291,11 @@
       <c r="B14" s="19">
         <v>44087</v>
       </c>
-      <c r="C14" s="94"/>
-      <c r="D14" s="95"/>
-      <c r="E14" s="95"/>
-      <c r="F14" s="95"/>
-      <c r="G14" s="96"/>
+      <c r="C14" s="91"/>
+      <c r="D14" s="92"/>
+      <c r="E14" s="92"/>
+      <c r="F14" s="92"/>
+      <c r="G14" s="93"/>
     </row>
     <row r="15" spans="1:7" s="1" customFormat="1" ht="57.6">
       <c r="A15" s="4">
@@ -4257,15 +4305,15 @@
         <v>44088</v>
       </c>
       <c r="C15" s="55" t="s">
+        <v>185</v>
+      </c>
+      <c r="D15" s="55" t="s">
         <v>186</v>
       </c>
-      <c r="D15" s="55" t="s">
-        <v>187</v>
-      </c>
       <c r="E15" s="6">
         <v>1</v>
       </c>
-      <c r="F15" s="88" t="s">
+      <c r="F15" s="82" t="s">
         <v>8</v>
       </c>
       <c r="G15" s="4"/>
@@ -4278,15 +4326,15 @@
         <v>44089</v>
       </c>
       <c r="C16" s="55" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D16" s="55" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E16" s="6">
         <v>1</v>
       </c>
-      <c r="F16" s="88" t="s">
+      <c r="F16" s="82" t="s">
         <v>8</v>
       </c>
       <c r="G16" s="4"/>
@@ -4299,15 +4347,15 @@
         <v>44090</v>
       </c>
       <c r="C17" s="55" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D17" s="55" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E17" s="6">
         <v>1</v>
       </c>
-      <c r="F17" s="88" t="s">
+      <c r="F17" s="82" t="s">
         <v>8</v>
       </c>
       <c r="G17" s="4"/>
@@ -4320,15 +4368,15 @@
         <v>44091</v>
       </c>
       <c r="C18" s="55" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D18" s="55" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E18" s="6">
         <v>1</v>
       </c>
-      <c r="F18" s="88" t="s">
+      <c r="F18" s="82" t="s">
         <v>8</v>
       </c>
       <c r="G18" s="4"/>
@@ -4341,15 +4389,15 @@
         <v>44092</v>
       </c>
       <c r="C19" s="55" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D19" s="55" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E19" s="6">
         <v>1</v>
       </c>
-      <c r="F19" s="88" t="s">
+      <c r="F19" s="82" t="s">
         <v>8</v>
       </c>
       <c r="G19" s="4"/>
@@ -4361,13 +4409,13 @@
       <c r="B20" s="19">
         <v>44093</v>
       </c>
-      <c r="C20" s="91" t="s">
-        <v>178</v>
-      </c>
-      <c r="D20" s="92"/>
-      <c r="E20" s="92"/>
-      <c r="F20" s="92"/>
-      <c r="G20" s="93"/>
+      <c r="C20" s="88" t="s">
+        <v>177</v>
+      </c>
+      <c r="D20" s="89"/>
+      <c r="E20" s="89"/>
+      <c r="F20" s="89"/>
+      <c r="G20" s="90"/>
     </row>
     <row r="21" spans="1:7" s="1" customFormat="1">
       <c r="A21" s="4">
@@ -4376,11 +4424,11 @@
       <c r="B21" s="19">
         <v>44094</v>
       </c>
-      <c r="C21" s="94"/>
-      <c r="D21" s="95"/>
-      <c r="E21" s="95"/>
-      <c r="F21" s="95"/>
-      <c r="G21" s="96"/>
+      <c r="C21" s="91"/>
+      <c r="D21" s="92"/>
+      <c r="E21" s="92"/>
+      <c r="F21" s="92"/>
+      <c r="G21" s="93"/>
     </row>
     <row r="22" spans="1:7" s="1" customFormat="1" ht="43.2">
       <c r="A22" s="4">
@@ -4390,15 +4438,15 @@
         <v>44095</v>
       </c>
       <c r="C22" s="55" t="s">
+        <v>191</v>
+      </c>
+      <c r="D22" s="55" t="s">
         <v>192</v>
       </c>
-      <c r="D22" s="55" t="s">
-        <v>193</v>
-      </c>
       <c r="E22" s="6">
         <v>1</v>
       </c>
-      <c r="F22" s="88" t="s">
+      <c r="F22" s="82" t="s">
         <v>8</v>
       </c>
       <c r="G22" s="4"/>
@@ -4411,16 +4459,16 @@
         <v>44096</v>
       </c>
       <c r="C23" s="55" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D23" s="55" t="s">
-        <v>194</v>
-      </c>
-      <c r="E23" s="89">
+        <v>193</v>
+      </c>
+      <c r="E23" s="83">
         <v>0.5</v>
       </c>
-      <c r="F23" s="97" t="s">
-        <v>176</v>
+      <c r="F23" s="85" t="s">
+        <v>175</v>
       </c>
       <c r="G23" s="4"/>
     </row>
@@ -4432,15 +4480,15 @@
         <v>44097</v>
       </c>
       <c r="C24" s="55" t="s">
+        <v>194</v>
+      </c>
+      <c r="D24" s="55" t="s">
         <v>195</v>
       </c>
-      <c r="D24" s="55" t="s">
-        <v>196</v>
-      </c>
       <c r="E24" s="6">
         <v>1</v>
       </c>
-      <c r="F24" s="88" t="s">
+      <c r="F24" s="82" t="s">
         <v>8</v>
       </c>
       <c r="G24" s="4"/>
@@ -4453,15 +4501,15 @@
         <v>44098</v>
       </c>
       <c r="C25" s="55" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D25" s="55" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E25" s="6">
         <v>1</v>
       </c>
-      <c r="F25" s="88" t="s">
+      <c r="F25" s="82" t="s">
         <v>8</v>
       </c>
       <c r="G25" s="4"/>
@@ -4474,16 +4522,16 @@
         <v>44099</v>
       </c>
       <c r="C26" s="55" t="s">
+        <v>197</v>
+      </c>
+      <c r="D26" s="55" t="s">
         <v>198</v>
-      </c>
-      <c r="D26" s="55" t="s">
-        <v>199</v>
       </c>
       <c r="E26" s="6">
         <v>0.5</v>
       </c>
-      <c r="F26" s="97" t="s">
-        <v>176</v>
+      <c r="F26" s="85" t="s">
+        <v>175</v>
       </c>
       <c r="G26" s="4"/>
     </row>
@@ -4658,12 +4706,12 @@
       <c r="B6" s="19">
         <v>44079</v>
       </c>
-      <c r="C6" s="81" t="s">
+      <c r="C6" s="94" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="82"/>
-      <c r="E6" s="82"/>
-      <c r="F6" s="83"/>
+      <c r="D6" s="95"/>
+      <c r="E6" s="95"/>
+      <c r="F6" s="96"/>
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="1:7">
@@ -4673,10 +4721,10 @@
       <c r="B7" s="19">
         <v>44080</v>
       </c>
-      <c r="C7" s="84"/>
-      <c r="D7" s="85"/>
-      <c r="E7" s="85"/>
-      <c r="F7" s="86"/>
+      <c r="C7" s="97"/>
+      <c r="D7" s="98"/>
+      <c r="E7" s="98"/>
+      <c r="F7" s="99"/>
       <c r="G7" s="4"/>
     </row>
     <row r="8" spans="1:7">
@@ -4781,12 +4829,12 @@
       <c r="B13" s="19">
         <v>44086</v>
       </c>
-      <c r="C13" s="81" t="s">
+      <c r="C13" s="94" t="s">
         <v>22</v>
       </c>
-      <c r="D13" s="82"/>
-      <c r="E13" s="82"/>
-      <c r="F13" s="83"/>
+      <c r="D13" s="95"/>
+      <c r="E13" s="95"/>
+      <c r="F13" s="96"/>
       <c r="G13" s="4"/>
     </row>
     <row r="14" spans="1:7">
@@ -4796,10 +4844,10 @@
       <c r="B14" s="19">
         <v>44087</v>
       </c>
-      <c r="C14" s="84"/>
-      <c r="D14" s="85"/>
-      <c r="E14" s="85"/>
-      <c r="F14" s="86"/>
+      <c r="C14" s="97"/>
+      <c r="D14" s="98"/>
+      <c r="E14" s="98"/>
+      <c r="F14" s="99"/>
       <c r="G14" s="4"/>
     </row>
     <row r="15" spans="1:7">
@@ -4904,12 +4952,12 @@
       <c r="B20" s="19">
         <v>44093</v>
       </c>
-      <c r="C20" s="81" t="s">
+      <c r="C20" s="94" t="s">
         <v>22</v>
       </c>
-      <c r="D20" s="82"/>
-      <c r="E20" s="82"/>
-      <c r="F20" s="83"/>
+      <c r="D20" s="95"/>
+      <c r="E20" s="95"/>
+      <c r="F20" s="96"/>
       <c r="G20" s="4"/>
     </row>
     <row r="21" spans="1:7">
@@ -4919,10 +4967,10 @@
       <c r="B21" s="19">
         <v>44094</v>
       </c>
-      <c r="C21" s="84"/>
-      <c r="D21" s="85"/>
-      <c r="E21" s="85"/>
-      <c r="F21" s="86"/>
+      <c r="C21" s="97"/>
+      <c r="D21" s="98"/>
+      <c r="E21" s="98"/>
+      <c r="F21" s="99"/>
       <c r="G21" s="4"/>
     </row>
     <row r="22" spans="1:7">
